--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel05/field_100ha_100ha_14%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel05/field_100ha_100ha_14%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -4677,28 +4677,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>22737.75670237062</v>
+        <v>23030.28043538976</v>
       </c>
       <c r="AB2" t="n">
-        <v>31110.80183921459</v>
+        <v>31511.04571596769</v>
       </c>
       <c r="AC2" t="n">
-        <v>28141.63057596326</v>
+        <v>28503.67573886483</v>
       </c>
       <c r="AD2" t="n">
-        <v>22737756.70237062</v>
+        <v>23030280.43538976</v>
       </c>
       <c r="AE2" t="n">
-        <v>31110801.83921459</v>
+        <v>31511045.71596769</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.330541479948139e-07</v>
+        <v>6.16237372172086e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>46</v>
+        <v>45.63229166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>28141630.57596326</v>
+        <v>28503675.73886483</v>
       </c>
     </row>
     <row r="3">
@@ -4783,28 +4783,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>7496.477081449212</v>
+        <v>7642.739037467331</v>
       </c>
       <c r="AB3" t="n">
-        <v>10257.0106640671</v>
+        <v>10457.1327249132</v>
       </c>
       <c r="AC3" t="n">
-        <v>9278.095962093033</v>
+        <v>9459.118654325046</v>
       </c>
       <c r="AD3" t="n">
-        <v>7496477.081449213</v>
+        <v>7642739.037467332</v>
       </c>
       <c r="AE3" t="n">
-        <v>10257010.6640671</v>
+        <v>10457132.7249132</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.286159981207416e-07</v>
+        <v>1.163104177262163e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.175</v>
       </c>
       <c r="AH3" t="n">
-        <v>9278095.962093033</v>
+        <v>9459118.654325046</v>
       </c>
     </row>
     <row r="4">
@@ -4889,28 +4889,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>5719.978638136304</v>
+        <v>5854.044904032192</v>
       </c>
       <c r="AB4" t="n">
-        <v>7826.327120346251</v>
+        <v>8009.762499931236</v>
       </c>
       <c r="AC4" t="n">
-        <v>7079.393444299209</v>
+        <v>7245.322008709769</v>
       </c>
       <c r="AD4" t="n">
-        <v>5719978.638136304</v>
+        <v>5854044.904032192</v>
       </c>
       <c r="AE4" t="n">
-        <v>7826327.120346251</v>
+        <v>8009762.499931236</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.377375498947763e-07</v>
+        <v>1.365007617640928e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.6</v>
       </c>
       <c r="AH4" t="n">
-        <v>7079393.44429921</v>
+        <v>7245322.008709769</v>
       </c>
     </row>
     <row r="5">
@@ -4995,28 +4995,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>5031.762754683117</v>
+        <v>5141.523249714773</v>
       </c>
       <c r="AB5" t="n">
-        <v>6884.679786663606</v>
+        <v>7034.858938257213</v>
       </c>
       <c r="AC5" t="n">
-        <v>6227.615610532938</v>
+        <v>6363.461874676211</v>
       </c>
       <c r="AD5" t="n">
-        <v>5031762.754683117</v>
+        <v>5141523.249714772</v>
       </c>
       <c r="AE5" t="n">
-        <v>6884679.786663606</v>
+        <v>7034858.938257213</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.953618987594068e-07</v>
+        <v>1.471627749926506e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19.10520833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>6227615.610532939</v>
+        <v>6363461.874676211</v>
       </c>
     </row>
     <row r="6">
@@ -5101,28 +5101,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>4640.378184113975</v>
+        <v>4750.053338291058</v>
       </c>
       <c r="AB6" t="n">
-        <v>6349.170150542243</v>
+        <v>6499.232535013653</v>
       </c>
       <c r="AC6" t="n">
-        <v>5743.214262490525</v>
+        <v>5878.954903601858</v>
       </c>
       <c r="AD6" t="n">
-        <v>4640378.184113976</v>
+        <v>4750053.338291058</v>
       </c>
       <c r="AE6" t="n">
-        <v>6349170.150542243</v>
+        <v>6499232.535013652</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.316871212082498e-07</v>
+        <v>1.53883892192425e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.271875</v>
       </c>
       <c r="AH6" t="n">
-        <v>5743214.262490525</v>
+        <v>5878954.903601858</v>
       </c>
     </row>
     <row r="7">
@@ -5207,28 +5207,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>4378.598132545467</v>
+        <v>4488.358538068571</v>
       </c>
       <c r="AB7" t="n">
-        <v>5990.991135065396</v>
+        <v>6141.170164189456</v>
       </c>
       <c r="AC7" t="n">
-        <v>5419.219349543396</v>
+        <v>5555.065502905441</v>
       </c>
       <c r="AD7" t="n">
-        <v>4378598.132545467</v>
+        <v>4488358.538068571</v>
       </c>
       <c r="AE7" t="n">
-        <v>5990991.135065395</v>
+        <v>6141170.164189456</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.563415894566612e-07</v>
+        <v>1.584456143079345e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>17.74583333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>5419219.349543395</v>
+        <v>5555065.502905441</v>
       </c>
     </row>
     <row r="8">
@@ -5313,28 +5313,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>4190.536052461634</v>
+        <v>4300.125865784146</v>
       </c>
       <c r="AB8" t="n">
-        <v>5733.67630038126</v>
+        <v>5883.621917730473</v>
       </c>
       <c r="AC8" t="n">
-        <v>5186.462281537886</v>
+        <v>5322.09729961728</v>
       </c>
       <c r="AD8" t="n">
-        <v>4190536.052461634</v>
+        <v>4300125.865784146</v>
       </c>
       <c r="AE8" t="n">
-        <v>5733676.30038126</v>
+        <v>5883621.917730473</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.747230273223409e-07</v>
+        <v>1.618466615656517e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>17.37083333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>5186462.281537886</v>
+        <v>5322097.299617279</v>
       </c>
     </row>
     <row r="9">
@@ -5419,28 +5419,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>4046.396031563514</v>
+        <v>4143.960925981491</v>
       </c>
       <c r="AB9" t="n">
-        <v>5536.457564779515</v>
+        <v>5669.950157581561</v>
       </c>
       <c r="AC9" t="n">
-        <v>5008.065825263744</v>
+        <v>5128.818072366788</v>
       </c>
       <c r="AD9" t="n">
-        <v>4046396.031563514</v>
+        <v>4143960.92598149</v>
       </c>
       <c r="AE9" t="n">
-        <v>5536457.564779515</v>
+        <v>5669950.157581561</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.884361635078479e-07</v>
+        <v>1.643839507896629e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>18</v>
+        <v>17.10520833333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>5008065.825263744</v>
+        <v>5128818.072366788</v>
       </c>
     </row>
     <row r="10">
@@ -5525,28 +5525,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>3915.891665581996</v>
+        <v>4025.566730250527</v>
       </c>
       <c r="AB10" t="n">
-        <v>5357.895733797303</v>
+        <v>5507.957995799166</v>
       </c>
       <c r="AC10" t="n">
-        <v>4846.545684817378</v>
+        <v>4982.286215147486</v>
       </c>
       <c r="AD10" t="n">
-        <v>3915891.665581996</v>
+        <v>4025566.730250527</v>
       </c>
       <c r="AE10" t="n">
-        <v>5357895.733797303</v>
+        <v>5507957.995799166</v>
       </c>
       <c r="AF10" t="n">
-        <v>8.989398422882362e-07</v>
+        <v>1.663274063655013e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>17</v>
+        <v>16.903125</v>
       </c>
       <c r="AH10" t="n">
-        <v>4846545.684817378</v>
+        <v>4982286.215147486</v>
       </c>
     </row>
     <row r="11">
@@ -5631,28 +5631,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>3802.057053883332</v>
+        <v>3911.732118551865</v>
       </c>
       <c r="AB11" t="n">
-        <v>5202.142196042553</v>
+        <v>5352.204458044414</v>
       </c>
       <c r="AC11" t="n">
-        <v>4705.657046104484</v>
+        <v>4841.397576434591</v>
       </c>
       <c r="AD11" t="n">
-        <v>3802057.053883332</v>
+        <v>3911732.118551865</v>
       </c>
       <c r="AE11" t="n">
-        <v>5202142.196042554</v>
+        <v>5352204.458044414</v>
       </c>
       <c r="AF11" t="n">
-        <v>9.082764456485815e-07</v>
+        <v>1.680549224329132e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>17</v>
+        <v>16.73229166666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>4705657.046104484</v>
+        <v>4841397.576434591</v>
       </c>
     </row>
     <row r="12">
@@ -5737,28 +5737,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>3713.060969822158</v>
+        <v>3822.73603449069</v>
       </c>
       <c r="AB12" t="n">
-        <v>5080.373827599919</v>
+        <v>5230.436089601781</v>
       </c>
       <c r="AC12" t="n">
-        <v>4595.51007984304</v>
+        <v>4731.250610173147</v>
       </c>
       <c r="AD12" t="n">
-        <v>3713060.969822158</v>
+        <v>3822736.03449069</v>
       </c>
       <c r="AE12" t="n">
-        <v>5080373.827599918</v>
+        <v>5230436.08960178</v>
       </c>
       <c r="AF12" t="n">
-        <v>9.146953604588188e-07</v>
+        <v>1.692425897292588e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>17</v>
+        <v>16.6125</v>
       </c>
       <c r="AH12" t="n">
-        <v>4595510.079843041</v>
+        <v>4731250.610173147</v>
       </c>
     </row>
     <row r="13">
@@ -5843,28 +5843,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>3612.636094565153</v>
+        <v>3710.115648128558</v>
       </c>
       <c r="AB13" t="n">
-        <v>4942.968082840465</v>
+        <v>5076.343908520311</v>
       </c>
       <c r="AC13" t="n">
-        <v>4471.21814651326</v>
+        <v>4591.864770584365</v>
       </c>
       <c r="AD13" t="n">
-        <v>3612636.094565153</v>
+        <v>3710115.648128558</v>
       </c>
       <c r="AE13" t="n">
-        <v>4942968.082840465</v>
+        <v>5076343.908520311</v>
       </c>
       <c r="AF13" t="n">
-        <v>9.215519285515723e-07</v>
+        <v>1.705112343412645e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>17</v>
+        <v>16.48958333333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>4471218.14651326</v>
+        <v>4591864.770584365</v>
       </c>
     </row>
     <row r="14">
@@ -5949,28 +5949,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>3527.869737858542</v>
+        <v>3625.349291421947</v>
       </c>
       <c r="AB14" t="n">
-        <v>4826.987013966745</v>
+        <v>4960.362839646592</v>
       </c>
       <c r="AC14" t="n">
-        <v>4366.306148072399</v>
+        <v>4486.952772143505</v>
       </c>
       <c r="AD14" t="n">
-        <v>3527869.737858542</v>
+        <v>3625349.291421947</v>
       </c>
       <c r="AE14" t="n">
-        <v>4826987.013966745</v>
+        <v>4960362.839646592</v>
       </c>
       <c r="AF14" t="n">
-        <v>9.268037679417665e-07</v>
+        <v>1.714829621291836e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>17</v>
+        <v>16.39583333333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>4366306.148072399</v>
+        <v>4486952.772143506</v>
       </c>
     </row>
     <row r="15">
@@ -6055,28 +6055,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>3459.744262901736</v>
+        <v>3557.22381646514</v>
       </c>
       <c r="AB15" t="n">
-        <v>4733.774733646998</v>
+        <v>4867.150559326845</v>
       </c>
       <c r="AC15" t="n">
-        <v>4281.989916962115</v>
+        <v>4402.636541033221</v>
       </c>
       <c r="AD15" t="n">
-        <v>3459744.262901735</v>
+        <v>3557223.81646514</v>
       </c>
       <c r="AE15" t="n">
-        <v>4733774.733646998</v>
+        <v>4867150.559326845</v>
       </c>
       <c r="AF15" t="n">
-        <v>9.304508786294013e-07</v>
+        <v>1.721577730930164e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>17</v>
+        <v>16.33333333333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>4281989.916962115</v>
+        <v>4402636.541033221</v>
       </c>
     </row>
     <row r="16">
@@ -6161,28 +6161,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>3432.086036426487</v>
+        <v>3529.565589989892</v>
       </c>
       <c r="AB16" t="n">
-        <v>4695.931527988725</v>
+        <v>4829.307353668573</v>
       </c>
       <c r="AC16" t="n">
-        <v>4247.758413738597</v>
+        <v>4368.405037809704</v>
       </c>
       <c r="AD16" t="n">
-        <v>3432086.036426487</v>
+        <v>3529565.589989892</v>
       </c>
       <c r="AE16" t="n">
-        <v>4695931.527988725</v>
+        <v>4829307.353668573</v>
       </c>
       <c r="AF16" t="n">
-        <v>9.32201491759466e-07</v>
+        <v>1.724816823556561e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>17</v>
+        <v>16.30104166666667</v>
       </c>
       <c r="AH16" t="n">
-        <v>4247758.413738597</v>
+        <v>4368405.037809703</v>
       </c>
     </row>
     <row r="17">
@@ -6267,28 +6267,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>3430.618840340205</v>
+        <v>3528.09839390361</v>
       </c>
       <c r="AB17" t="n">
-        <v>4693.924045575352</v>
+        <v>4827.2998712552</v>
       </c>
       <c r="AC17" t="n">
-        <v>4245.942522629237</v>
+        <v>4366.589146700342</v>
       </c>
       <c r="AD17" t="n">
-        <v>3430618.840340205</v>
+        <v>3528098.39390361</v>
       </c>
       <c r="AE17" t="n">
-        <v>4693924.045575352</v>
+        <v>4827299.871255199</v>
       </c>
       <c r="AF17" t="n">
-        <v>9.327850294694876e-07</v>
+        <v>1.725896521098694e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>17</v>
+        <v>16.29166666666667</v>
       </c>
       <c r="AH17" t="n">
-        <v>4245942.522629237</v>
+        <v>4366589.146700342</v>
       </c>
     </row>
     <row r="18">
@@ -6373,28 +6373,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>3446.84764232466</v>
+        <v>3544.327195888066</v>
       </c>
       <c r="AB18" t="n">
-        <v>4716.129008414699</v>
+        <v>4849.504834094546</v>
       </c>
       <c r="AC18" t="n">
-        <v>4266.028274980057</v>
+        <v>4386.674899051162</v>
       </c>
       <c r="AD18" t="n">
-        <v>3446847.64232466</v>
+        <v>3544327.195888066</v>
       </c>
       <c r="AE18" t="n">
-        <v>4716129.008414699</v>
+        <v>4849504.834094546</v>
       </c>
       <c r="AF18" t="n">
-        <v>9.327850294694876e-07</v>
+        <v>1.725896521098694e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>17</v>
+        <v>16.29166666666667</v>
       </c>
       <c r="AH18" t="n">
-        <v>4266028.274980057</v>
+        <v>4386674.899051162</v>
       </c>
     </row>
   </sheetData>
@@ -6670,28 +6670,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>13593.37696212618</v>
+        <v>13816.71681093867</v>
       </c>
       <c r="AB2" t="n">
-        <v>18599.05805704915</v>
+        <v>18904.64149125314</v>
       </c>
       <c r="AC2" t="n">
-        <v>16823.99006002561</v>
+        <v>17100.40904015821</v>
       </c>
       <c r="AD2" t="n">
-        <v>13593376.96212618</v>
+        <v>13816716.81093867</v>
       </c>
       <c r="AE2" t="n">
-        <v>18599058.05704915</v>
+        <v>18904641.49125315</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.382583193081255e-07</v>
+        <v>8.35387994058924e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>36</v>
+        <v>35.87291666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>16823990.06002561</v>
+        <v>17100409.04015821</v>
       </c>
     </row>
     <row r="3">
@@ -6776,28 +6776,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>5843.922760061483</v>
+        <v>5973.238342175351</v>
       </c>
       <c r="AB3" t="n">
-        <v>7995.912935993035</v>
+        <v>8172.848220442084</v>
       </c>
       <c r="AC3" t="n">
-        <v>7232.794227715846</v>
+        <v>7392.843056947303</v>
       </c>
       <c r="AD3" t="n">
-        <v>5843922.760061483</v>
+        <v>5973238.342175351</v>
       </c>
       <c r="AE3" t="n">
-        <v>7995912.935993034</v>
+        <v>8172848.220442085</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.097551224883314e-07</v>
+        <v>1.352902801673251e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.146875</v>
       </c>
       <c r="AH3" t="n">
-        <v>7232794.227715846</v>
+        <v>7392843.056947303</v>
       </c>
     </row>
     <row r="4">
@@ -6882,28 +6882,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>4652.762432065486</v>
+        <v>4770.228961192065</v>
       </c>
       <c r="AB4" t="n">
-        <v>6366.11482494396</v>
+        <v>6526.837712352475</v>
       </c>
       <c r="AC4" t="n">
-        <v>5758.541760949342</v>
+        <v>5903.925481559571</v>
       </c>
       <c r="AD4" t="n">
-        <v>4652762.432065486</v>
+        <v>4770228.961192065</v>
       </c>
       <c r="AE4" t="n">
-        <v>6366114.824943961</v>
+        <v>6526837.712352475</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.081519627737646e-07</v>
+        <v>1.540462365077665e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.45208333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>5758541.760949342</v>
+        <v>5903925.481559572</v>
       </c>
     </row>
     <row r="5">
@@ -6988,28 +6988,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>4147.672503571563</v>
+        <v>4253.460661419998</v>
       </c>
       <c r="AB5" t="n">
-        <v>5675.028501783544</v>
+        <v>5819.772526395923</v>
       </c>
       <c r="AC5" t="n">
-        <v>5133.411746525636</v>
+        <v>5264.341604578517</v>
       </c>
       <c r="AD5" t="n">
-        <v>4147672.503571562</v>
+        <v>4253460.661419998</v>
       </c>
       <c r="AE5" t="n">
-        <v>5675028.501783544</v>
+        <v>5819772.526395923</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.59614113904643e-07</v>
+        <v>1.638557167410341e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.28645833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>5133411.746525636</v>
+        <v>5264341.604578517</v>
       </c>
     </row>
     <row r="6">
@@ -7094,28 +7094,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>3842.780264274145</v>
+        <v>3948.653673468601</v>
       </c>
       <c r="AB6" t="n">
-        <v>5257.861489080513</v>
+        <v>5402.72215834554</v>
       </c>
       <c r="AC6" t="n">
-        <v>4756.058568017417</v>
+        <v>4887.093938321012</v>
       </c>
       <c r="AD6" t="n">
-        <v>3842780.264274145</v>
+        <v>3948653.6734686</v>
       </c>
       <c r="AE6" t="n">
-        <v>5257861.489080513</v>
+        <v>5402722.15834554</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.916081785373298e-07</v>
+        <v>1.699542792320979e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.63125</v>
       </c>
       <c r="AH6" t="n">
-        <v>4756058.568017418</v>
+        <v>4887093.938321011</v>
       </c>
     </row>
     <row r="7">
@@ -7200,28 +7200,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>3637.323589007858</v>
+        <v>3743.026406001721</v>
       </c>
       <c r="AB7" t="n">
-        <v>4976.746601872363</v>
+        <v>5121.373859362542</v>
       </c>
       <c r="AC7" t="n">
-        <v>4501.772891097201</v>
+        <v>4632.597126118143</v>
       </c>
       <c r="AD7" t="n">
-        <v>3637323.589007858</v>
+        <v>3743026.406001721</v>
       </c>
       <c r="AE7" t="n">
-        <v>4976746.601872362</v>
+        <v>5121373.859362542</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.134909114228939e-07</v>
+        <v>1.741254658415519e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>17.209375</v>
       </c>
       <c r="AH7" t="n">
-        <v>4501772.891097201</v>
+        <v>4632597.126118143</v>
       </c>
     </row>
     <row r="8">
@@ -7306,28 +7306,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>3464.064102089944</v>
+        <v>3569.852170429828</v>
       </c>
       <c r="AB8" t="n">
-        <v>4739.685328202159</v>
+        <v>4884.429230344988</v>
       </c>
       <c r="AC8" t="n">
-        <v>4287.336412668505</v>
+        <v>4418.266159940159</v>
       </c>
       <c r="AD8" t="n">
-        <v>3464064.102089944</v>
+        <v>3569852.170429828</v>
       </c>
       <c r="AE8" t="n">
-        <v>4739685.328202159</v>
+        <v>4884429.230344988</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.294879437392374e-07</v>
+        <v>1.771747470870838e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>16.91354166666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>4287336.412668505</v>
+        <v>4418266.159940159</v>
       </c>
     </row>
     <row r="9">
@@ -7412,28 +7412,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>3326.805664451973</v>
+        <v>3432.593732791857</v>
       </c>
       <c r="AB9" t="n">
-        <v>4551.882278410979</v>
+        <v>4696.626180553808</v>
       </c>
       <c r="AC9" t="n">
-        <v>4117.457022366165</v>
+        <v>4248.386769637819</v>
       </c>
       <c r="AD9" t="n">
-        <v>3326805.664451974</v>
+        <v>3432593.732791857</v>
       </c>
       <c r="AE9" t="n">
-        <v>4551882.278410979</v>
+        <v>4696626.180553808</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.417120910753111e-07</v>
+        <v>1.795048582275374e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>17</v>
+        <v>16.69375</v>
       </c>
       <c r="AH9" t="n">
-        <v>4117457.022366165</v>
+        <v>4248386.769637819</v>
       </c>
     </row>
     <row r="10">
@@ -7518,28 +7518,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>3203.405806180199</v>
+        <v>3309.193874520082</v>
       </c>
       <c r="AB10" t="n">
-        <v>4383.041148305999</v>
+        <v>4527.785050448829</v>
       </c>
       <c r="AC10" t="n">
-        <v>3964.729852748397</v>
+        <v>4095.659600020052</v>
       </c>
       <c r="AD10" t="n">
-        <v>3203405.806180199</v>
+        <v>3309193.874520082</v>
       </c>
       <c r="AE10" t="n">
-        <v>4383041.148305999</v>
+        <v>4527785.050448828</v>
       </c>
       <c r="AF10" t="n">
-        <v>9.509179304271691e-07</v>
+        <v>1.812596332839284e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>17</v>
+        <v>16.53229166666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>3964729.852748397</v>
+        <v>4095659.600020051</v>
       </c>
     </row>
     <row r="11">
@@ -7624,28 +7624,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>3105.261485300697</v>
+        <v>3199.285931016414</v>
       </c>
       <c r="AB11" t="n">
-        <v>4248.755758656803</v>
+        <v>4377.404153350845</v>
       </c>
       <c r="AC11" t="n">
-        <v>3843.260472216597</v>
+        <v>3959.63084468019</v>
       </c>
       <c r="AD11" t="n">
-        <v>3105261.485300697</v>
+        <v>3199285.931016414</v>
       </c>
       <c r="AE11" t="n">
-        <v>4248755.758656803</v>
+        <v>4377404.153350845</v>
       </c>
       <c r="AF11" t="n">
-        <v>9.578600387908654e-07</v>
+        <v>1.825829062772724e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>17</v>
+        <v>16.41145833333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>3843260.472216597</v>
+        <v>3959630.84468019</v>
       </c>
     </row>
     <row r="12">
@@ -7730,28 +7730,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>3089.303894084144</v>
+        <v>3183.328339799862</v>
       </c>
       <c r="AB12" t="n">
-        <v>4226.921878355076</v>
+        <v>4355.570273049117</v>
       </c>
       <c r="AC12" t="n">
-        <v>3823.510386806824</v>
+        <v>3939.880759270417</v>
       </c>
       <c r="AD12" t="n">
-        <v>3089303.894084144</v>
+        <v>3183328.339799861</v>
       </c>
       <c r="AE12" t="n">
-        <v>4226921.878355076</v>
+        <v>4355570.273049117</v>
       </c>
       <c r="AF12" t="n">
-        <v>9.593691927829732e-07</v>
+        <v>1.828705743193037e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>17</v>
+        <v>16.38645833333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>3823510.386806824</v>
+        <v>3939880.759270417</v>
       </c>
     </row>
     <row r="13">
@@ -7836,28 +7836,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>3101.748911547478</v>
+        <v>3195.773357263196</v>
       </c>
       <c r="AB13" t="n">
-        <v>4243.949700283832</v>
+        <v>4372.598094977872</v>
       </c>
       <c r="AC13" t="n">
-        <v>3838.913097309397</v>
+        <v>3955.28346977299</v>
       </c>
       <c r="AD13" t="n">
-        <v>3101748.911547478</v>
+        <v>3195773.357263195</v>
       </c>
       <c r="AE13" t="n">
-        <v>4243949.700283832</v>
+        <v>4372598.094977872</v>
       </c>
       <c r="AF13" t="n">
-        <v>9.590673619845516e-07</v>
+        <v>1.828130407108974e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>17</v>
+        <v>16.38958333333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>3838913.097309397</v>
+        <v>3955283.46977299</v>
       </c>
     </row>
   </sheetData>
@@ -8133,28 +8133,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4284.364328697357</v>
+        <v>4409.840297737077</v>
       </c>
       <c r="AB2" t="n">
-        <v>5862.056287338387</v>
+        <v>6033.73804378761</v>
       </c>
       <c r="AC2" t="n">
-        <v>5302.589862722261</v>
+        <v>5457.886553292824</v>
       </c>
       <c r="AD2" t="n">
-        <v>4284364.328697357</v>
+        <v>4409840.297737077</v>
       </c>
       <c r="AE2" t="n">
-        <v>5862056.287338387</v>
+        <v>6033738.04378761</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.677337787611568e-07</v>
+        <v>1.635072030578625e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.84895833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>5302589.862722262</v>
+        <v>5457886.553292824</v>
       </c>
     </row>
     <row r="3">
@@ -8239,28 +8239,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2755.830923152362</v>
+        <v>2849.91665422706</v>
       </c>
       <c r="AB3" t="n">
-        <v>3770.649447737013</v>
+        <v>3899.381695762931</v>
       </c>
       <c r="AC3" t="n">
-        <v>3410.783956584589</v>
+        <v>3527.230179535752</v>
       </c>
       <c r="AD3" t="n">
-        <v>2755830.923152362</v>
+        <v>2849916.654227059</v>
       </c>
       <c r="AE3" t="n">
-        <v>3770649.447737013</v>
+        <v>3899381.695762931</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.607197209546829e-07</v>
+        <v>2.046081582463491e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.25833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>3410783.956584589</v>
+        <v>3527230.179535752</v>
       </c>
     </row>
     <row r="4">
@@ -8345,28 +8345,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2331.931823053985</v>
+        <v>2415.639452492062</v>
       </c>
       <c r="AB4" t="n">
-        <v>3190.651997873942</v>
+        <v>3305.184469391105</v>
       </c>
       <c r="AC4" t="n">
-        <v>2886.140649304937</v>
+        <v>2989.742302487831</v>
       </c>
       <c r="AD4" t="n">
-        <v>2331931.823053985</v>
+        <v>2415639.452492062</v>
       </c>
       <c r="AE4" t="n">
-        <v>3190651.997873942</v>
+        <v>3305184.469391105</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.023701171548382e-06</v>
+        <v>2.180215589797644e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.13645833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>2886140.649304937</v>
+        <v>2989742.302487831</v>
       </c>
     </row>
     <row r="5">
@@ -8451,28 +8451,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2311.152272617456</v>
+        <v>2394.859902055533</v>
       </c>
       <c r="AB5" t="n">
-        <v>3162.220500237616</v>
+        <v>3276.752971754779</v>
       </c>
       <c r="AC5" t="n">
-        <v>2860.422613899165</v>
+        <v>2964.024267082059</v>
       </c>
       <c r="AD5" t="n">
-        <v>2311152.272617456</v>
+        <v>2394859.902055534</v>
       </c>
       <c r="AE5" t="n">
-        <v>3162220.500237616</v>
+        <v>3276752.971754779</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.029089958764955e-06</v>
+        <v>2.191692296307518e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.04479166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>2860422.613899165</v>
+        <v>2964024.267082059</v>
       </c>
     </row>
   </sheetData>
@@ -8748,28 +8748,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>6531.074097352116</v>
+        <v>6684.423308943758</v>
       </c>
       <c r="AB2" t="n">
-        <v>8936.103710651612</v>
+        <v>9145.92286724105</v>
       </c>
       <c r="AC2" t="n">
-        <v>8083.254514407012</v>
+        <v>8273.048825174585</v>
       </c>
       <c r="AD2" t="n">
-        <v>6531074.097352116</v>
+        <v>6684423.308943758</v>
       </c>
       <c r="AE2" t="n">
-        <v>8936103.710651612</v>
+        <v>9145922.867241049</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.350662682438717e-07</v>
+        <v>1.289404087051621e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.421875</v>
       </c>
       <c r="AH2" t="n">
-        <v>8083254.514407012</v>
+        <v>8273048.825174584</v>
       </c>
     </row>
     <row r="3">
@@ -8854,28 +8854,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3747.251031270984</v>
+        <v>3856.968991732987</v>
       </c>
       <c r="AB3" t="n">
-        <v>5127.154178033261</v>
+        <v>5277.275131952179</v>
       </c>
       <c r="AC3" t="n">
-        <v>4637.825779287657</v>
+        <v>4773.61940006063</v>
       </c>
       <c r="AD3" t="n">
-        <v>3747251.031270984</v>
+        <v>3856968.991732987</v>
       </c>
       <c r="AE3" t="n">
-        <v>5127154.178033261</v>
+        <v>5277275.13195218</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.604487414232672e-07</v>
+        <v>1.747008429462889e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.50416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>4637825.779287658</v>
+        <v>4773619.40006063</v>
       </c>
     </row>
     <row r="4">
@@ -8960,28 +8960,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>3129.05047345608</v>
+        <v>3238.597752208941</v>
       </c>
       <c r="AB4" t="n">
-        <v>4281.304901747088</v>
+        <v>4431.192321421612</v>
       </c>
       <c r="AC4" t="n">
-        <v>3872.703170773354</v>
+        <v>4008.285545482449</v>
       </c>
       <c r="AD4" t="n">
-        <v>3129050.47345608</v>
+        <v>3238597.752208941</v>
       </c>
       <c r="AE4" t="n">
-        <v>4281304.901747089</v>
+        <v>4431192.321421612</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.387445827136074e-07</v>
+        <v>1.905976056633637e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.87708333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>3872703.170773353</v>
+        <v>4008285.545482449</v>
       </c>
     </row>
     <row r="5">
@@ -9066,28 +9066,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2810.114496467074</v>
+        <v>2897.888954345228</v>
       </c>
       <c r="AB5" t="n">
-        <v>3844.922627568443</v>
+        <v>3965.019513173127</v>
       </c>
       <c r="AC5" t="n">
-        <v>3477.968608375967</v>
+        <v>3586.603615775572</v>
       </c>
       <c r="AD5" t="n">
-        <v>2810114.496467074</v>
+        <v>2897888.954345228</v>
       </c>
       <c r="AE5" t="n">
-        <v>3844922.627568443</v>
+        <v>3965019.513173127</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.799868365620172e-07</v>
+        <v>1.989712090698887e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.12291666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>3477968.608375967</v>
+        <v>3586603.615775572</v>
       </c>
     </row>
     <row r="6">
@@ -9172,28 +9172,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2597.213811384128</v>
+        <v>2695.87463494536</v>
       </c>
       <c r="AB6" t="n">
-        <v>3553.622517722605</v>
+        <v>3688.614609127434</v>
       </c>
       <c r="AC6" t="n">
-        <v>3214.469772171554</v>
+        <v>3336.57840783529</v>
       </c>
       <c r="AD6" t="n">
-        <v>2597213.811384128</v>
+        <v>2695874.63494536</v>
       </c>
       <c r="AE6" t="n">
-        <v>3553622.517722605</v>
+        <v>3688614.609127434</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.002541194135366e-06</v>
+        <v>2.035505234328321e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.73958333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>3214469.772171554</v>
+        <v>3336578.40783529</v>
       </c>
     </row>
     <row r="7">
@@ -9278,28 +9278,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2573.61267784112</v>
+        <v>2672.273501402351</v>
       </c>
       <c r="AB7" t="n">
-        <v>3521.330405600532</v>
+        <v>3656.322497005362</v>
       </c>
       <c r="AC7" t="n">
-        <v>3185.259573908149</v>
+        <v>3307.368209571886</v>
       </c>
       <c r="AD7" t="n">
-        <v>2573612.67784112</v>
+        <v>2672273.501402351</v>
       </c>
       <c r="AE7" t="n">
-        <v>3521330.405600532</v>
+        <v>3656322.497005362</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.006085450325464e-06</v>
+        <v>2.042701299755803e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>16.67916666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>3185259.573908149</v>
+        <v>3307368.209571886</v>
       </c>
     </row>
     <row r="8">
@@ -9384,28 +9384,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2590.664438487756</v>
+        <v>2689.325262048987</v>
       </c>
       <c r="AB8" t="n">
-        <v>3544.661376787849</v>
+        <v>3679.653468192678</v>
       </c>
       <c r="AC8" t="n">
-        <v>3206.363869950571</v>
+        <v>3328.472505614309</v>
       </c>
       <c r="AD8" t="n">
-        <v>2590664.438487757</v>
+        <v>2689325.262048988</v>
       </c>
       <c r="AE8" t="n">
-        <v>3544661.376787849</v>
+        <v>3679653.468192678</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.006085450325464e-06</v>
+        <v>2.042701299755803e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>16.67916666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>3206363.869950571</v>
+        <v>3328472.505614309</v>
       </c>
     </row>
   </sheetData>
@@ -9681,28 +9681,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3003.343690325485</v>
+        <v>3113.769720737841</v>
       </c>
       <c r="AB2" t="n">
-        <v>4109.307335275928</v>
+        <v>4260.397101738761</v>
       </c>
       <c r="AC2" t="n">
-        <v>3717.120810646105</v>
+        <v>3853.79078185354</v>
       </c>
       <c r="AD2" t="n">
-        <v>3003343.690325485</v>
+        <v>3113769.720737841</v>
       </c>
       <c r="AE2" t="n">
-        <v>4109307.335275928</v>
+        <v>4260397.101738761</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.832306312210461e-07</v>
+        <v>1.966782099553155e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.628125</v>
       </c>
       <c r="AH2" t="n">
-        <v>3717120.810646106</v>
+        <v>3853790.78185354</v>
       </c>
     </row>
     <row r="3">
@@ -9787,28 +9787,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2101.251978689757</v>
+        <v>2191.670373362701</v>
       </c>
       <c r="AB3" t="n">
-        <v>2875.025657938139</v>
+        <v>2998.740094507877</v>
       </c>
       <c r="AC3" t="n">
-        <v>2600.637244268376</v>
+        <v>2712.544548646089</v>
       </c>
       <c r="AD3" t="n">
-        <v>2101251.978689757</v>
+        <v>2191670.373362701</v>
       </c>
       <c r="AE3" t="n">
-        <v>2875025.657938139</v>
+        <v>2998740.094507877</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.035566052962339e-06</v>
+        <v>2.306003329000837e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.59166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>2600637.244268376</v>
+        <v>2712544.548646089</v>
       </c>
     </row>
     <row r="4">
@@ -9893,28 +9893,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2103.656826478747</v>
+        <v>2194.075221151692</v>
       </c>
       <c r="AB4" t="n">
-        <v>2878.316076777433</v>
+        <v>3002.030513347171</v>
       </c>
       <c r="AC4" t="n">
-        <v>2603.613630151779</v>
+        <v>2715.520934529492</v>
       </c>
       <c r="AD4" t="n">
-        <v>2103656.826478748</v>
+        <v>2194075.221151692</v>
       </c>
       <c r="AE4" t="n">
-        <v>2878316.076777433</v>
+        <v>3002030.513347171</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.038889098901587e-06</v>
+        <v>2.31340310323678e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.5375</v>
       </c>
       <c r="AH4" t="n">
-        <v>2603613.630151779</v>
+        <v>2715520.934529492</v>
       </c>
     </row>
   </sheetData>
@@ -10190,28 +10190,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>15368.10434987283</v>
+        <v>15605.47827471553</v>
       </c>
       <c r="AB2" t="n">
-        <v>21027.31836441079</v>
+        <v>21352.10384057906</v>
       </c>
       <c r="AC2" t="n">
-        <v>19020.50061173731</v>
+        <v>19314.28901789934</v>
       </c>
       <c r="AD2" t="n">
-        <v>15368104.34987283</v>
+        <v>15605478.27471553</v>
       </c>
       <c r="AE2" t="n">
-        <v>21027318.36441079</v>
+        <v>21352103.84057906</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.106910378233996e-07</v>
+        <v>7.765196933454878e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>38</v>
+        <v>37.93854166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>19020500.61173731</v>
+        <v>19314289.01789934</v>
       </c>
     </row>
     <row r="3">
@@ -10296,28 +10296,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>6224.32235647153</v>
+        <v>6366.763779548062</v>
       </c>
       <c r="AB3" t="n">
-        <v>8516.392445847068</v>
+        <v>8711.287084972468</v>
       </c>
       <c r="AC3" t="n">
-        <v>7703.59990364697</v>
+        <v>7879.894071950578</v>
       </c>
       <c r="AD3" t="n">
-        <v>6224322.35647153</v>
+        <v>6366763.779548062</v>
       </c>
       <c r="AE3" t="n">
-        <v>8516392.445847068</v>
+        <v>8711287.084972467</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.885730291838789e-07</v>
+        <v>1.301928866774445e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.62604166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>7703599.90364697</v>
+        <v>7879894.071950578</v>
       </c>
     </row>
     <row r="4">
@@ -10402,28 +10402,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>4907.250648184187</v>
+        <v>5026.022951460107</v>
       </c>
       <c r="AB4" t="n">
-        <v>6714.316829465307</v>
+        <v>6876.826334671638</v>
       </c>
       <c r="AC4" t="n">
-        <v>6073.51185486374</v>
+        <v>6220.511680976694</v>
       </c>
       <c r="AD4" t="n">
-        <v>4907250.648184188</v>
+        <v>5026022.951460107</v>
       </c>
       <c r="AE4" t="n">
-        <v>6714316.829465307</v>
+        <v>6876826.334671638</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.896754114011471e-07</v>
+        <v>1.493089577882074e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.72708333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>6073511.854863741</v>
+        <v>6220511.680976694</v>
       </c>
     </row>
     <row r="5">
@@ -10508,28 +10508,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>4361.917456438027</v>
+        <v>4480.433826658782</v>
       </c>
       <c r="AB5" t="n">
-        <v>5968.167898115703</v>
+        <v>6130.327224424988</v>
       </c>
       <c r="AC5" t="n">
-        <v>5398.574330295568</v>
+        <v>5545.257398093933</v>
       </c>
       <c r="AD5" t="n">
-        <v>4361917.456438027</v>
+        <v>4480433.826658782</v>
       </c>
       <c r="AE5" t="n">
-        <v>5968167.898115703</v>
+        <v>6130327.224424988</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.427691180389135e-07</v>
+        <v>1.593477229425282e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.4875</v>
       </c>
       <c r="AH5" t="n">
-        <v>5398574.330295568</v>
+        <v>5545257.398093933</v>
       </c>
     </row>
     <row r="6">
@@ -10614,28 +10614,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>4039.470284449248</v>
+        <v>4146.365357397574</v>
       </c>
       <c r="AB6" t="n">
-        <v>5526.981452035376</v>
+        <v>5673.240006721075</v>
       </c>
       <c r="AC6" t="n">
-        <v>4999.494099420099</v>
+        <v>5131.793942921759</v>
       </c>
       <c r="AD6" t="n">
-        <v>4039470.284449248</v>
+        <v>4146365.357397574</v>
       </c>
       <c r="AE6" t="n">
-        <v>5526981.452035376</v>
+        <v>5673240.006721075</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.758218199176358e-07</v>
+        <v>1.655972077287391e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.7875</v>
       </c>
       <c r="AH6" t="n">
-        <v>4999494.099420099</v>
+        <v>5131793.942921759</v>
       </c>
     </row>
     <row r="7">
@@ -10720,28 +10720,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>3826.279932737522</v>
+        <v>3933.004413485256</v>
       </c>
       <c r="AB7" t="n">
-        <v>5235.285007528851</v>
+        <v>5381.310150439702</v>
       </c>
       <c r="AC7" t="n">
-        <v>4735.636754178756</v>
+        <v>4867.725462397765</v>
       </c>
       <c r="AD7" t="n">
-        <v>3826279.932737522</v>
+        <v>3933004.413485256</v>
       </c>
       <c r="AE7" t="n">
-        <v>5235285.007528851</v>
+        <v>5381310.150439702</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.982557804688048e-07</v>
+        <v>1.698389394840859e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>17.34270833333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>4735636.754178756</v>
+        <v>4867725.462397765</v>
       </c>
     </row>
     <row r="8">
@@ -10826,28 +10826,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>3661.012627010089</v>
+        <v>3756.030559139374</v>
       </c>
       <c r="AB8" t="n">
-        <v>5009.158988753615</v>
+        <v>5139.166715388228</v>
       </c>
       <c r="AC8" t="n">
-        <v>4531.091885265576</v>
+        <v>4648.691856937167</v>
       </c>
       <c r="AD8" t="n">
-        <v>3661012.627010089</v>
+        <v>3756030.559139375</v>
       </c>
       <c r="AE8" t="n">
-        <v>5009158.988753615</v>
+        <v>5139166.715388228</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.14707351539662e-07</v>
+        <v>1.729495427713402e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>17.03333333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>4531091.885265576</v>
+        <v>4648691.856937167</v>
       </c>
     </row>
     <row r="9">
@@ -10932,28 +10932,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>3509.472972856595</v>
+        <v>3616.28270495035</v>
       </c>
       <c r="AB9" t="n">
-        <v>4801.815748483087</v>
+        <v>4947.957536046588</v>
       </c>
       <c r="AC9" t="n">
-        <v>4343.537192838411</v>
+        <v>4475.731413308132</v>
       </c>
       <c r="AD9" t="n">
-        <v>3509472.972856595</v>
+        <v>3616282.70495035</v>
       </c>
       <c r="AE9" t="n">
-        <v>4801815.748483087</v>
+        <v>4947957.536046588</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.272703694483166e-07</v>
+        <v>1.753249125543344e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>17</v>
+        <v>16.80104166666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>4343537.192838411</v>
+        <v>4475731.413308132</v>
       </c>
     </row>
     <row r="10">
@@ -11038,28 +11038,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>3382.211194229618</v>
+        <v>3489.020926323373</v>
       </c>
       <c r="AB10" t="n">
-        <v>4627.690568572219</v>
+        <v>4773.832356135718</v>
       </c>
       <c r="AC10" t="n">
-        <v>4186.030275712016</v>
+        <v>4318.224496181738</v>
       </c>
       <c r="AD10" t="n">
-        <v>3382211.194229618</v>
+        <v>3489020.926323373</v>
       </c>
       <c r="AE10" t="n">
-        <v>4627690.568572219</v>
+        <v>4773832.356135719</v>
       </c>
       <c r="AF10" t="n">
-        <v>9.375899913018543e-07</v>
+        <v>1.77276109161794e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>17</v>
+        <v>16.615625</v>
       </c>
       <c r="AH10" t="n">
-        <v>4186030.275712017</v>
+        <v>4318224.496181738</v>
       </c>
     </row>
     <row r="11">
@@ -11144,28 +11144,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>3276.914659468472</v>
+        <v>3371.847250743185</v>
       </c>
       <c r="AB11" t="n">
-        <v>4483.619204356749</v>
+        <v>4613.510163869163</v>
       </c>
       <c r="AC11" t="n">
-        <v>4055.708880291847</v>
+        <v>4173.203228931499</v>
       </c>
       <c r="AD11" t="n">
-        <v>3276914.659468472</v>
+        <v>3371847.250743185</v>
       </c>
       <c r="AE11" t="n">
-        <v>4483619.204356749</v>
+        <v>4613510.163869163</v>
       </c>
       <c r="AF11" t="n">
-        <v>9.45067978152244e-07</v>
+        <v>1.786900197469096e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>17</v>
+        <v>16.484375</v>
       </c>
       <c r="AH11" t="n">
-        <v>4055708.880291847</v>
+        <v>4173203.228931499</v>
       </c>
     </row>
     <row r="12">
@@ -11250,28 +11250,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>3192.644625500512</v>
+        <v>3287.577216775226</v>
       </c>
       <c r="AB12" t="n">
-        <v>4368.317226150266</v>
+        <v>4498.20818566268</v>
       </c>
       <c r="AC12" t="n">
-        <v>3951.411161058053</v>
+        <v>4068.905509697704</v>
       </c>
       <c r="AD12" t="n">
-        <v>3192644.625500512</v>
+        <v>3287577.216775225</v>
       </c>
       <c r="AE12" t="n">
-        <v>4368317.226150266</v>
+        <v>4498208.18566268</v>
       </c>
       <c r="AF12" t="n">
-        <v>9.504521286845244e-07</v>
+        <v>1.797080353681928e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>17</v>
+        <v>16.39166666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>3951411.161058052</v>
+        <v>4068905.509697704</v>
       </c>
     </row>
     <row r="13">
@@ -11356,28 +11356,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>3175.326825057555</v>
+        <v>3270.259416332269</v>
       </c>
       <c r="AB13" t="n">
-        <v>4344.622247576775</v>
+        <v>4474.513207089191</v>
       </c>
       <c r="AC13" t="n">
-        <v>3929.977597983505</v>
+        <v>4047.471946623158</v>
       </c>
       <c r="AD13" t="n">
-        <v>3175326.825057555</v>
+        <v>3270259.416332269</v>
       </c>
       <c r="AE13" t="n">
-        <v>4344622.247576775</v>
+        <v>4474513.207089191</v>
       </c>
       <c r="AF13" t="n">
-        <v>9.522468455286181e-07</v>
+        <v>1.800473739086206e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>17</v>
+        <v>16.36041666666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>3929977.597983505</v>
+        <v>4047471.946623158</v>
       </c>
     </row>
     <row r="14">
@@ -11462,28 +11462,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>3183.027377557118</v>
+        <v>3277.959968831832</v>
       </c>
       <c r="AB14" t="n">
-        <v>4355.158483231077</v>
+        <v>4485.049442743493</v>
       </c>
       <c r="AC14" t="n">
-        <v>3939.50827009466</v>
+        <v>4057.002618734312</v>
       </c>
       <c r="AD14" t="n">
-        <v>3183027.377557117</v>
+        <v>3277959.968831832</v>
       </c>
       <c r="AE14" t="n">
-        <v>4355158.483231077</v>
+        <v>4485049.442743493</v>
       </c>
       <c r="AF14" t="n">
-        <v>9.520972857916104e-07</v>
+        <v>1.800190956969182e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>17</v>
+        <v>16.3625</v>
       </c>
       <c r="AH14" t="n">
-        <v>3939508.27009466</v>
+        <v>4057002.618734312</v>
       </c>
     </row>
   </sheetData>
@@ -11759,28 +11759,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2377.635183393671</v>
+        <v>2475.460481041066</v>
       </c>
       <c r="AB2" t="n">
-        <v>3253.185351780661</v>
+        <v>3387.034239769377</v>
       </c>
       <c r="AC2" t="n">
-        <v>2942.70590768091</v>
+        <v>3063.780445658072</v>
       </c>
       <c r="AD2" t="n">
-        <v>2377635.183393671</v>
+        <v>2475460.481041066</v>
       </c>
       <c r="AE2" t="n">
-        <v>3253185.351780661</v>
+        <v>3387034.239769377</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.568621833142912e-07</v>
+        <v>2.193670424061399e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.48541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2942705.90768091</v>
+        <v>3063780.445658072</v>
       </c>
     </row>
     <row r="3">
@@ -11865,28 +11865,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1973.548570474092</v>
+        <v>2071.373778612936</v>
       </c>
       <c r="AB3" t="n">
-        <v>2700.296220940714</v>
+        <v>2834.144986459874</v>
       </c>
       <c r="AC3" t="n">
-        <v>2442.58373950368</v>
+        <v>2563.658166699614</v>
       </c>
       <c r="AD3" t="n">
-        <v>1973548.570474091</v>
+        <v>2071373.778612936</v>
       </c>
       <c r="AE3" t="n">
-        <v>2700296.220940714</v>
+        <v>2834144.986459874</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.037406138138726e-06</v>
+        <v>2.378322816659159e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.97083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>2442583.73950368</v>
+        <v>2563658.166699614</v>
       </c>
     </row>
   </sheetData>
@@ -12162,28 +12162,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>9460.316799029981</v>
+        <v>9642.55610884192</v>
       </c>
       <c r="AB2" t="n">
-        <v>12944.02280415496</v>
+        <v>13193.3706676706</v>
       </c>
       <c r="AC2" t="n">
-        <v>11708.66343477603</v>
+        <v>11934.21388815965</v>
       </c>
       <c r="AD2" t="n">
-        <v>9460316.79902998</v>
+        <v>9642556.10884192</v>
       </c>
       <c r="AE2" t="n">
-        <v>12944022.80415496</v>
+        <v>13193370.6676706</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.289757065717002e-07</v>
+        <v>1.036785074471084e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.62395833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>11708663.43477603</v>
+        <v>11934213.88815965</v>
       </c>
     </row>
     <row r="3">
@@ -12268,28 +12268,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>4745.199770734831</v>
+        <v>4870.462627213486</v>
       </c>
       <c r="AB3" t="n">
-        <v>6492.591669758932</v>
+        <v>6663.981836200247</v>
       </c>
       <c r="AC3" t="n">
-        <v>5872.947833206535</v>
+        <v>6027.980762710292</v>
       </c>
       <c r="AD3" t="n">
-        <v>4745199.770734831</v>
+        <v>4870462.627213486</v>
       </c>
       <c r="AE3" t="n">
-        <v>6492591.669758932</v>
+        <v>6663981.836200247</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.797804727974945e-07</v>
+        <v>1.528358950168279e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.76875</v>
       </c>
       <c r="AH3" t="n">
-        <v>5872947.833206534</v>
+        <v>6027980.762710292</v>
       </c>
     </row>
     <row r="4">
@@ -12374,28 +12374,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>3887.656886143897</v>
+        <v>4001.524451955895</v>
       </c>
       <c r="AB4" t="n">
-        <v>5319.263662939539</v>
+        <v>5475.062289965988</v>
       </c>
       <c r="AC4" t="n">
-        <v>4811.600604581829</v>
+        <v>4952.530029309614</v>
       </c>
       <c r="AD4" t="n">
-        <v>3887656.886143897</v>
+        <v>4001524.451955895</v>
       </c>
       <c r="AE4" t="n">
-        <v>5319263.662939539</v>
+        <v>5475062.289965988</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.687205386878568e-07</v>
+        <v>1.702680250167533e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.64270833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>4811600.604581828</v>
+        <v>4952530.029309615</v>
       </c>
     </row>
     <row r="5">
@@ -12480,28 +12480,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>3491.610629642735</v>
+        <v>3594.168245642648</v>
       </c>
       <c r="AB5" t="n">
-        <v>4777.375702466918</v>
+        <v>4917.6995572007</v>
       </c>
       <c r="AC5" t="n">
-        <v>4321.429670512204</v>
+        <v>4448.361213495957</v>
       </c>
       <c r="AD5" t="n">
-        <v>3491610.629642735</v>
+        <v>3594168.245642649</v>
       </c>
       <c r="AE5" t="n">
-        <v>4777375.702466917</v>
+        <v>4917699.5572007</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.14900957515545e-07</v>
+        <v>1.793193232859453e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.70208333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>4321429.670512204</v>
+        <v>4448361.213495957</v>
       </c>
     </row>
     <row r="6">
@@ -12586,28 +12586,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>3240.738281244271</v>
+        <v>3343.125305043593</v>
       </c>
       <c r="AB6" t="n">
-        <v>4434.121087681228</v>
+        <v>4574.211530640163</v>
       </c>
       <c r="AC6" t="n">
-        <v>4010.934794400796</v>
+        <v>4137.655202101897</v>
       </c>
       <c r="AD6" t="n">
-        <v>3240738.281244271</v>
+        <v>3343125.305043593</v>
       </c>
       <c r="AE6" t="n">
-        <v>4434121.087681228</v>
+        <v>4574211.530640163</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.435110486411161e-07</v>
+        <v>1.849268616075996e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.16666666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>4010934.794400796</v>
+        <v>4137655.202101897</v>
       </c>
     </row>
     <row r="7">
@@ -12692,28 +12692,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>3046.406225620799</v>
+        <v>3148.878500766141</v>
       </c>
       <c r="AB7" t="n">
-        <v>4168.227395851959</v>
+        <v>4308.434483463543</v>
       </c>
       <c r="AC7" t="n">
-        <v>3770.417623335583</v>
+        <v>3897.243543287396</v>
       </c>
       <c r="AD7" t="n">
-        <v>3046406.225620799</v>
+        <v>3148878.500766141</v>
       </c>
       <c r="AE7" t="n">
-        <v>4168227.395851959</v>
+        <v>4308434.483463543</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.629472518514224e-07</v>
+        <v>1.887363305761148e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>16.82083333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>3770417.623335583</v>
+        <v>3897243.543287396</v>
       </c>
     </row>
     <row r="8">
@@ -12798,28 +12798,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2888.461095964051</v>
+        <v>2990.933371109392</v>
       </c>
       <c r="AB8" t="n">
-        <v>3952.119901408244</v>
+        <v>4092.326989019828</v>
       </c>
       <c r="AC8" t="n">
-        <v>3574.935124852811</v>
+        <v>3701.761044804623</v>
       </c>
       <c r="AD8" t="n">
-        <v>2888461.095964051</v>
+        <v>2990933.371109392</v>
       </c>
       <c r="AE8" t="n">
-        <v>3952119.901408243</v>
+        <v>4092326.989019828</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.767858285371607e-07</v>
+        <v>1.914486724816975e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>16.58020833333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>3574935.124852811</v>
+        <v>3701761.044804623</v>
       </c>
     </row>
     <row r="9">
@@ -12904,28 +12904,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2829.521682399641</v>
+        <v>2920.598756386877</v>
       </c>
       <c r="AB9" t="n">
-        <v>3871.476395546</v>
+        <v>3996.092066212269</v>
       </c>
       <c r="AC9" t="n">
-        <v>3501.988122006192</v>
+        <v>3614.710647963259</v>
       </c>
       <c r="AD9" t="n">
-        <v>2829521.682399641</v>
+        <v>2920598.756386877</v>
       </c>
       <c r="AE9" t="n">
-        <v>3871476.395546</v>
+        <v>3996092.066212269</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.819169861846814e-07</v>
+        <v>1.924543722893855e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>17</v>
+        <v>16.49583333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>3501988.122006192</v>
+        <v>3614710.647963259</v>
       </c>
     </row>
     <row r="10">
@@ -13010,28 +13010,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2847.313891302982</v>
+        <v>2938.390965290218</v>
       </c>
       <c r="AB10" t="n">
-        <v>3895.820480704412</v>
+        <v>4020.43615137068</v>
       </c>
       <c r="AC10" t="n">
-        <v>3524.008841844222</v>
+        <v>3636.731367801289</v>
       </c>
       <c r="AD10" t="n">
-        <v>2847313.891302982</v>
+        <v>2938390.965290218</v>
       </c>
       <c r="AE10" t="n">
-        <v>3895820.480704412</v>
+        <v>4020436.15137068</v>
       </c>
       <c r="AF10" t="n">
-        <v>9.817614965589991e-07</v>
+        <v>1.924238965376374e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>17</v>
+        <v>16.49895833333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>3524008.841844222</v>
+        <v>3636731.367801289</v>
       </c>
     </row>
   </sheetData>
@@ -13307,28 +13307,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>12051.92561320279</v>
+        <v>12261.38072228173</v>
       </c>
       <c r="AB2" t="n">
-        <v>16489.97631741802</v>
+        <v>16776.56203816709</v>
       </c>
       <c r="AC2" t="n">
-        <v>14916.19612151014</v>
+        <v>15175.4305032965</v>
       </c>
       <c r="AD2" t="n">
-        <v>12051925.6132028</v>
+        <v>12261380.72228173</v>
       </c>
       <c r="AE2" t="n">
-        <v>16489976.31741802</v>
+        <v>16776562.03816709</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.667968919746926e-07</v>
+        <v>8.975118225119952e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>34</v>
+        <v>33.996875</v>
       </c>
       <c r="AH2" t="n">
-        <v>14916196.12151014</v>
+        <v>15175430.5032965</v>
       </c>
     </row>
     <row r="3">
@@ -13413,28 +13413,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>5463.84589311081</v>
+        <v>5591.95054303686</v>
       </c>
       <c r="AB3" t="n">
-        <v>7475.874998823137</v>
+        <v>7651.153432430256</v>
       </c>
       <c r="AC3" t="n">
-        <v>6762.387981391635</v>
+        <v>6920.938087300109</v>
       </c>
       <c r="AD3" t="n">
-        <v>5463845.89311081</v>
+        <v>5591950.543036859</v>
       </c>
       <c r="AE3" t="n">
-        <v>7475874.998823137</v>
+        <v>7651153.432430255</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.320362486744118e-07</v>
+        <v>1.407488350904092e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.67916666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>6762387.981391635</v>
+        <v>6920938.087300109</v>
       </c>
     </row>
     <row r="4">
@@ -13519,28 +13519,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>4397.679153833633</v>
+        <v>4513.967334293088</v>
       </c>
       <c r="AB4" t="n">
-        <v>6017.098630187115</v>
+        <v>6176.209248964195</v>
       </c>
       <c r="AC4" t="n">
-        <v>5442.835181972797</v>
+        <v>5586.760506606942</v>
       </c>
       <c r="AD4" t="n">
-        <v>4397679.153833633</v>
+        <v>4513967.334293088</v>
       </c>
       <c r="AE4" t="n">
-        <v>6017098.630187116</v>
+        <v>6176209.248964194</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.275589808115307e-07</v>
+        <v>1.591150202312388e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.175</v>
       </c>
       <c r="AH4" t="n">
-        <v>5442835.181972797</v>
+        <v>5586760.506606942</v>
       </c>
     </row>
     <row r="5">
@@ -13625,28 +13625,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>3931.508564561335</v>
+        <v>4036.236208609355</v>
       </c>
       <c r="AB5" t="n">
-        <v>5379.263463949795</v>
+        <v>5522.556446793879</v>
       </c>
       <c r="AC5" t="n">
-        <v>4865.874108793912</v>
+        <v>4995.491410468318</v>
       </c>
       <c r="AD5" t="n">
-        <v>3931508.564561335</v>
+        <v>4036236.208609355</v>
       </c>
       <c r="AE5" t="n">
-        <v>5379263.463949795</v>
+        <v>5522556.446793879</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.773770564237123e-07</v>
+        <v>1.68693556979327e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.08645833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>4865874.108793912</v>
+        <v>4995491.410468318</v>
       </c>
     </row>
     <row r="6">
@@ -13731,28 +13731,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>3647.173702864646</v>
+        <v>3751.816006058094</v>
       </c>
       <c r="AB6" t="n">
-        <v>4990.223962207574</v>
+        <v>5133.400177929461</v>
       </c>
       <c r="AC6" t="n">
-        <v>4513.963991077614</v>
+        <v>4643.47566972008</v>
       </c>
       <c r="AD6" t="n">
-        <v>3647173.702864646</v>
+        <v>3751816.006058095</v>
       </c>
       <c r="AE6" t="n">
-        <v>4990223.962207574</v>
+        <v>5133400.177929461</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.081515251505034e-07</v>
+        <v>1.746105735637729e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.475</v>
       </c>
       <c r="AH6" t="n">
-        <v>4513963.991077614</v>
+        <v>4643475.66972008</v>
       </c>
     </row>
     <row r="7">
@@ -13837,28 +13837,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>3449.845679205263</v>
+        <v>3543.012786841851</v>
       </c>
       <c r="AB7" t="n">
-        <v>4720.231054738791</v>
+        <v>4847.70640164988</v>
       </c>
       <c r="AC7" t="n">
-        <v>4269.738827760237</v>
+        <v>4385.0481064749</v>
       </c>
       <c r="AD7" t="n">
-        <v>3449845.679205263</v>
+        <v>3543012.786841851</v>
       </c>
       <c r="AE7" t="n">
-        <v>4720231.054738791</v>
+        <v>4847706.40164988</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.288709694418084e-07</v>
+        <v>1.785943075018157e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>17.08541666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>4269738.827760236</v>
+        <v>4385048.1064749</v>
       </c>
     </row>
     <row r="8">
@@ -13943,28 +13943,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>3278.734759487316</v>
+        <v>3383.462314026785</v>
       </c>
       <c r="AB8" t="n">
-        <v>4486.109545499677</v>
+        <v>4629.402405874213</v>
       </c>
       <c r="AC8" t="n">
-        <v>4057.96154677131</v>
+        <v>4187.578737664488</v>
       </c>
       <c r="AD8" t="n">
-        <v>3278734.759487316</v>
+        <v>3383462.314026786</v>
       </c>
       <c r="AE8" t="n">
-        <v>4486109.545499677</v>
+        <v>4629402.405874213</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.445629015153701e-07</v>
+        <v>1.81611400116657e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>16.80104166666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>4057961.54677131</v>
+        <v>4187578.737664488</v>
       </c>
     </row>
     <row r="9">
@@ -14049,28 +14049,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>3135.103714136359</v>
+        <v>3239.83126867583</v>
       </c>
       <c r="AB9" t="n">
-        <v>4289.587212695978</v>
+        <v>4432.880073070514</v>
       </c>
       <c r="AC9" t="n">
-        <v>3880.195029589578</v>
+        <v>4009.812220482755</v>
       </c>
       <c r="AD9" t="n">
-        <v>3135103.714136359</v>
+        <v>3239831.268675829</v>
       </c>
       <c r="AE9" t="n">
-        <v>4289587.212695979</v>
+        <v>4432880.073070514</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.561414145016876e-07</v>
+        <v>1.838376043761515e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>17</v>
+        <v>16.59791666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>3880195.029589578</v>
+        <v>4009812.220482755</v>
       </c>
     </row>
     <row r="10">
@@ -14155,28 +14155,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>3030.093470973769</v>
+        <v>3123.175237755785</v>
       </c>
       <c r="AB10" t="n">
-        <v>4145.907565275947</v>
+        <v>4273.266145064839</v>
       </c>
       <c r="AC10" t="n">
-        <v>3750.227966063668</v>
+        <v>3865.431621746392</v>
       </c>
       <c r="AD10" t="n">
-        <v>3030093.470973769</v>
+        <v>3123175.237755785</v>
       </c>
       <c r="AE10" t="n">
-        <v>4145907.565275947</v>
+        <v>4273266.145064839</v>
       </c>
       <c r="AF10" t="n">
-        <v>9.642159038210932e-07</v>
+        <v>1.853900889255358e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>17</v>
+        <v>16.45833333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>3750227.966063668</v>
+        <v>3865431.621746392</v>
       </c>
     </row>
     <row r="11">
@@ -14261,28 +14261,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>3003.760207105298</v>
+        <v>3096.841973887314</v>
       </c>
       <c r="AB11" t="n">
-        <v>4109.877231909492</v>
+        <v>4237.235811698384</v>
       </c>
       <c r="AC11" t="n">
-        <v>3717.636317144818</v>
+        <v>3832.839972827543</v>
       </c>
       <c r="AD11" t="n">
-        <v>3003760.207105298</v>
+        <v>3096841.973887314</v>
       </c>
       <c r="AE11" t="n">
-        <v>4109877.231909493</v>
+        <v>4237235.811698385</v>
       </c>
       <c r="AF11" t="n">
-        <v>9.661964389371737e-07</v>
+        <v>1.857708870225546e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>17</v>
+        <v>16.42604166666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>3717636.317144818</v>
+        <v>3832839.972827543</v>
       </c>
     </row>
     <row r="12">
@@ -14367,28 +14367,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>3014.46496971566</v>
+        <v>3107.546736497676</v>
       </c>
       <c r="AB12" t="n">
-        <v>4124.523960373786</v>
+        <v>4251.882540162677</v>
       </c>
       <c r="AC12" t="n">
-        <v>3730.885182401292</v>
+        <v>3846.088838084017</v>
       </c>
       <c r="AD12" t="n">
-        <v>3014464.96971566</v>
+        <v>3107546.736497676</v>
       </c>
       <c r="AE12" t="n">
-        <v>4124523.960373786</v>
+        <v>4251882.540162677</v>
       </c>
       <c r="AF12" t="n">
-        <v>9.66653485502423e-07</v>
+        <v>1.85858763506482e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>17</v>
+        <v>16.41666666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>3730885.182401292</v>
+        <v>3846088.838084017</v>
       </c>
     </row>
   </sheetData>
@@ -14664,28 +14664,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>19854.1182435841</v>
+        <v>20120.07572239566</v>
       </c>
       <c r="AB2" t="n">
-        <v>27165.28048275235</v>
+        <v>27529.17523847822</v>
       </c>
       <c r="AC2" t="n">
-        <v>24572.66424018794</v>
+        <v>24901.82939115682</v>
       </c>
       <c r="AD2" t="n">
-        <v>19854118.2435841</v>
+        <v>20120075.72239566</v>
       </c>
       <c r="AE2" t="n">
-        <v>27165280.48275235</v>
+        <v>27529175.23847822</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.582153416271389e-07</v>
+        <v>6.67328012098591e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>43</v>
+        <v>42.76979166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>24572664.24018794</v>
+        <v>24901829.39115682</v>
       </c>
     </row>
     <row r="3">
@@ -14770,28 +14770,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>7041.631379667384</v>
+        <v>7186.745644939818</v>
       </c>
       <c r="AB3" t="n">
-        <v>9634.670708513017</v>
+        <v>9833.222448248327</v>
       </c>
       <c r="AC3" t="n">
-        <v>8715.151258437438</v>
+        <v>8894.753498801518</v>
       </c>
       <c r="AD3" t="n">
-        <v>7041631.379667384</v>
+        <v>7186745.644939817</v>
       </c>
       <c r="AE3" t="n">
-        <v>9634670.708513016</v>
+        <v>9833222.448248327</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.483462402438652e-07</v>
+        <v>1.207819870830331e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.628125</v>
       </c>
       <c r="AH3" t="n">
-        <v>8715151.258437438</v>
+        <v>8894753.498801518</v>
       </c>
     </row>
     <row r="4">
@@ -14876,28 +14876,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>5448.311409312472</v>
+        <v>5569.154712360149</v>
       </c>
       <c r="AB4" t="n">
-        <v>7454.620032757195</v>
+        <v>7619.963171217305</v>
       </c>
       <c r="AC4" t="n">
-        <v>6743.161559455495</v>
+        <v>6892.724580841517</v>
       </c>
       <c r="AD4" t="n">
-        <v>5448311.409312473</v>
+        <v>5569154.712360149</v>
       </c>
       <c r="AE4" t="n">
-        <v>7454620.032757195</v>
+        <v>7619963.171217305</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.543697465300585e-07</v>
+        <v>1.405333621537673e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.30416666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>6743161.559455495</v>
+        <v>6892724.580841517</v>
       </c>
     </row>
     <row r="5">
@@ -14982,28 +14982,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>4794.182616366223</v>
+        <v>4915.025829905347</v>
       </c>
       <c r="AB5" t="n">
-        <v>6559.612160122443</v>
+        <v>6724.955176113004</v>
       </c>
       <c r="AC5" t="n">
-        <v>5933.571982033598</v>
+        <v>6083.134892638394</v>
       </c>
       <c r="AD5" t="n">
-        <v>4794182.616366223</v>
+        <v>4915025.829905347</v>
       </c>
       <c r="AE5" t="n">
-        <v>6559612.160122443</v>
+        <v>6724955.176113004</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.109842401780258e-07</v>
+        <v>1.510802129196933e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.88645833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>5933571.982033598</v>
+        <v>6083134.892638395</v>
       </c>
     </row>
     <row r="6">
@@ -15088,28 +15088,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>4435.25855531031</v>
+        <v>4544.009002918615</v>
       </c>
       <c r="AB6" t="n">
-        <v>6068.516425173692</v>
+        <v>6217.313585322527</v>
       </c>
       <c r="AC6" t="n">
-        <v>5489.345734771182</v>
+        <v>5623.941902793531</v>
       </c>
       <c r="AD6" t="n">
-        <v>4435258.55531031</v>
+        <v>4544009.002918615</v>
       </c>
       <c r="AE6" t="n">
-        <v>6068516.425173692</v>
+        <v>6217313.585322526</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.465704933281768e-07</v>
+        <v>1.577096619725611e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.09479166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>5489345.734771182</v>
+        <v>5623941.902793531</v>
       </c>
     </row>
     <row r="7">
@@ -15194,28 +15194,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>4196.969530934097</v>
+        <v>4305.805229888423</v>
       </c>
       <c r="AB7" t="n">
-        <v>5742.478869452323</v>
+        <v>5891.392674253805</v>
       </c>
       <c r="AC7" t="n">
-        <v>5194.424745771289</v>
+        <v>5329.12642604435</v>
       </c>
       <c r="AD7" t="n">
-        <v>4196969.530934097</v>
+        <v>4305805.229888423</v>
       </c>
       <c r="AE7" t="n">
-        <v>5742478.869452323</v>
+        <v>5891392.674253806</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.695103920530675e-07</v>
+        <v>1.619831911140791e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>17.615625</v>
       </c>
       <c r="AH7" t="n">
-        <v>5194424.745771289</v>
+        <v>5329126.42604435</v>
       </c>
     </row>
     <row r="8">
@@ -15300,28 +15300,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>4021.756993873521</v>
+        <v>4130.422100627254</v>
       </c>
       <c r="AB8" t="n">
-        <v>5502.745346414437</v>
+        <v>5651.425739441074</v>
       </c>
       <c r="AC8" t="n">
-        <v>4977.571053704036</v>
+        <v>5112.061598694447</v>
       </c>
       <c r="AD8" t="n">
-        <v>4021756.99387352</v>
+        <v>4130422.100627254</v>
       </c>
       <c r="AE8" t="n">
-        <v>5502745.346414438</v>
+        <v>5651425.739441074</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.871564679952909e-07</v>
+        <v>1.652705212229392e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>17.26458333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>4977571.053704035</v>
+        <v>5112061.598694446</v>
       </c>
     </row>
     <row r="9">
@@ -15406,28 +15406,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>3874.584154825464</v>
+        <v>3971.327087848972</v>
       </c>
       <c r="AB9" t="n">
-        <v>5301.376975221456</v>
+        <v>5433.744924181212</v>
       </c>
       <c r="AC9" t="n">
-        <v>4795.420997235435</v>
+        <v>4915.15593492605</v>
       </c>
       <c r="AD9" t="n">
-        <v>3874584.154825464</v>
+        <v>3971327.087848972</v>
       </c>
       <c r="AE9" t="n">
-        <v>5301376.975221456</v>
+        <v>5433744.924181212</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.008321768505143e-07</v>
+        <v>1.678182020573057e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>18</v>
+        <v>17.00416666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>4795420.997235435</v>
+        <v>4915155.93492605</v>
       </c>
     </row>
     <row r="10">
@@ -15512,28 +15512,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>3745.340414176035</v>
+        <v>3854.090772275789</v>
       </c>
       <c r="AB10" t="n">
-        <v>5124.539987433475</v>
+        <v>5273.33702511276</v>
       </c>
       <c r="AC10" t="n">
-        <v>4635.461083369675</v>
+        <v>4770.057140610798</v>
       </c>
       <c r="AD10" t="n">
-        <v>3745340.414176035</v>
+        <v>3854090.772275789</v>
       </c>
       <c r="AE10" t="n">
-        <v>5124539.987433475</v>
+        <v>5273337.02511276</v>
       </c>
       <c r="AF10" t="n">
-        <v>9.111257211501448e-07</v>
+        <v>1.697358112874741e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>17</v>
+        <v>16.81145833333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>4635461.083369675</v>
+        <v>4770057.140610798</v>
       </c>
     </row>
     <row r="11">
@@ -15618,28 +15618,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>3635.140859322506</v>
+        <v>3743.89121742226</v>
       </c>
       <c r="AB11" t="n">
-        <v>4973.760094821626</v>
+        <v>5122.557132500912</v>
       </c>
       <c r="AC11" t="n">
-        <v>4499.071412087798</v>
+        <v>4633.667469328921</v>
       </c>
       <c r="AD11" t="n">
-        <v>3635140.859322506</v>
+        <v>3743891.21742226</v>
       </c>
       <c r="AE11" t="n">
-        <v>4973760.094821626</v>
+        <v>5122557.132500912</v>
       </c>
       <c r="AF11" t="n">
-        <v>9.196546578555527e-07</v>
+        <v>1.713246875067564e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>17</v>
+        <v>16.65729166666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>4499071.412087798</v>
+        <v>4633667.469328921</v>
       </c>
     </row>
     <row r="12">
@@ -15724,28 +15724,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>3536.73220352513</v>
+        <v>3645.482561624885</v>
       </c>
       <c r="AB12" t="n">
-        <v>4839.113030476162</v>
+        <v>4987.910068155448</v>
       </c>
       <c r="AC12" t="n">
-        <v>4377.27487458513</v>
+        <v>4511.870931826252</v>
       </c>
       <c r="AD12" t="n">
-        <v>3536732.203525131</v>
+        <v>3645482.561624885</v>
       </c>
       <c r="AE12" t="n">
-        <v>4839113.030476162</v>
+        <v>4987910.068155448</v>
       </c>
       <c r="AF12" t="n">
-        <v>9.270071894981459e-07</v>
+        <v>1.726944083854481e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>17</v>
+        <v>16.525</v>
       </c>
       <c r="AH12" t="n">
-        <v>4377274.874585129</v>
+        <v>4511870.931826252</v>
       </c>
     </row>
     <row r="13">
@@ -15830,28 +15830,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>3439.834825065586</v>
+        <v>3536.492417234522</v>
       </c>
       <c r="AB13" t="n">
-        <v>4706.533762457169</v>
+        <v>4838.784944294726</v>
       </c>
       <c r="AC13" t="n">
-        <v>4257.348785829702</v>
+        <v>4376.978100488379</v>
       </c>
       <c r="AD13" t="n">
-        <v>3439834.825065586</v>
+        <v>3536492.417234522</v>
       </c>
       <c r="AE13" t="n">
-        <v>4706533.76245717</v>
+        <v>4838784.944294726</v>
       </c>
       <c r="AF13" t="n">
-        <v>9.327421641793686e-07</v>
+        <v>1.737627906708277e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>17</v>
+        <v>16.421875</v>
       </c>
       <c r="AH13" t="n">
-        <v>4257348.785829702</v>
+        <v>4376978.100488379</v>
       </c>
     </row>
     <row r="14">
@@ -15936,28 +15936,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>3366.525105519739</v>
+        <v>3463.182697688675</v>
       </c>
       <c r="AB14" t="n">
-        <v>4606.228169977968</v>
+        <v>4738.479351815526</v>
       </c>
       <c r="AC14" t="n">
-        <v>4166.616218316936</v>
+        <v>4286.245532975612</v>
       </c>
       <c r="AD14" t="n">
-        <v>3366525.105519739</v>
+        <v>3463182.697688675</v>
       </c>
       <c r="AE14" t="n">
-        <v>4606228.169977968</v>
+        <v>4738479.351815525</v>
       </c>
       <c r="AF14" t="n">
-        <v>9.370066325320726e-07</v>
+        <v>1.745572287804689e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>17</v>
+        <v>16.346875</v>
       </c>
       <c r="AH14" t="n">
-        <v>4166616.218316936</v>
+        <v>4286245.532975612</v>
       </c>
     </row>
     <row r="15">
@@ -16042,28 +16042,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>3341.883874437887</v>
+        <v>3438.541466606822</v>
       </c>
       <c r="AB15" t="n">
-        <v>4572.512950517385</v>
+        <v>4704.764132354941</v>
       </c>
       <c r="AC15" t="n">
-        <v>4136.118732082064</v>
+        <v>4255.748046740739</v>
       </c>
       <c r="AD15" t="n">
-        <v>3341883.874437887</v>
+        <v>3438541.466606822</v>
       </c>
       <c r="AE15" t="n">
-        <v>4572512.950517384</v>
+        <v>4704764.132354941</v>
       </c>
       <c r="AF15" t="n">
-        <v>9.38771240126295e-07</v>
+        <v>1.748859617913548e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>17</v>
+        <v>16.31770833333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>4136118.732082064</v>
+        <v>4255748.04674074</v>
       </c>
     </row>
     <row r="16">
@@ -16148,28 +16148,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>3350.668578856067</v>
+        <v>3447.326171025004</v>
       </c>
       <c r="AB16" t="n">
-        <v>4584.532570656146</v>
+        <v>4716.783752493704</v>
       </c>
       <c r="AC16" t="n">
-        <v>4146.991216544425</v>
+        <v>4266.620531203102</v>
       </c>
       <c r="AD16" t="n">
-        <v>3350668.578856067</v>
+        <v>3447326.171025004</v>
       </c>
       <c r="AE16" t="n">
-        <v>4584532.570656146</v>
+        <v>4716783.752493704</v>
       </c>
       <c r="AF16" t="n">
-        <v>9.386241894934431e-07</v>
+        <v>1.74858567373781e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>17</v>
+        <v>16.31875</v>
       </c>
       <c r="AH16" t="n">
-        <v>4146991.216544425</v>
+        <v>4266620.531203101</v>
       </c>
     </row>
   </sheetData>
@@ -16445,28 +16445,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>7408.294289555501</v>
+        <v>7574.930860182994</v>
       </c>
       <c r="AB2" t="n">
-        <v>10136.35507784791</v>
+        <v>10364.35458526711</v>
       </c>
       <c r="AC2" t="n">
-        <v>9168.955575681422</v>
+        <v>9375.195130111842</v>
       </c>
       <c r="AD2" t="n">
-        <v>7408294.2895555</v>
+        <v>7574930.860182994</v>
       </c>
       <c r="AE2" t="n">
-        <v>10136355.07784791</v>
+        <v>10364354.58526711</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.975281083859783e-07</v>
+        <v>1.197743512776551e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.73645833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>9168955.575681422</v>
+        <v>9375195.130111843</v>
       </c>
     </row>
     <row r="3">
@@ -16551,28 +16551,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>4071.035015846517</v>
+        <v>4193.189652517573</v>
       </c>
       <c r="AB3" t="n">
-        <v>5570.169710070792</v>
+        <v>5737.307073046368</v>
       </c>
       <c r="AC3" t="n">
-        <v>5038.560530723714</v>
+        <v>5189.746538355656</v>
       </c>
       <c r="AD3" t="n">
-        <v>4071035.015846517</v>
+        <v>4193189.652517573</v>
       </c>
       <c r="AE3" t="n">
-        <v>5570169.710070792</v>
+        <v>5737307.073046368</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.320213010805822e-07</v>
+        <v>1.667784497290032e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.91666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>5038560.530723713</v>
+        <v>5189746.538355656</v>
       </c>
     </row>
     <row r="4">
@@ -16657,28 +16657,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>3393.134244394773</v>
+        <v>3493.133344450735</v>
       </c>
       <c r="AB4" t="n">
-        <v>4642.635967699148</v>
+        <v>4779.459148044658</v>
       </c>
       <c r="AC4" t="n">
-        <v>4199.549306922271</v>
+        <v>4323.31427496814</v>
       </c>
       <c r="AD4" t="n">
-        <v>3393134.244394773</v>
+        <v>3493133.344450735</v>
       </c>
       <c r="AE4" t="n">
-        <v>4642635.967699148</v>
+        <v>4779459.148044658</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.139507408619397e-07</v>
+        <v>1.832011842625475e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.13229166666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>4199549.306922271</v>
+        <v>4323314.27496814</v>
       </c>
     </row>
     <row r="5">
@@ -16763,28 +16763,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>3047.921580958387</v>
+        <v>3147.835340159776</v>
       </c>
       <c r="AB5" t="n">
-        <v>4170.300771877605</v>
+        <v>4307.007185100917</v>
       </c>
       <c r="AC5" t="n">
-        <v>3772.293119263343</v>
+        <v>3895.952464277273</v>
       </c>
       <c r="AD5" t="n">
-        <v>3047921.580958387</v>
+        <v>3147835.340159777</v>
       </c>
       <c r="AE5" t="n">
-        <v>4170300.771877605</v>
+        <v>4307007.185100917</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.565858668064131e-07</v>
+        <v>1.917473839809744e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.32291666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>3772293.119263343</v>
+        <v>3895952.464277273</v>
       </c>
     </row>
     <row r="6">
@@ -16869,28 +16869,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2810.260767647472</v>
+        <v>2910.259778194882</v>
       </c>
       <c r="AB6" t="n">
-        <v>3845.122762250493</v>
+        <v>3981.945820126454</v>
       </c>
       <c r="AC6" t="n">
-        <v>3478.149642484853</v>
+        <v>3601.914499749494</v>
       </c>
       <c r="AD6" t="n">
-        <v>2810260.767647472</v>
+        <v>2910259.778194882</v>
       </c>
       <c r="AE6" t="n">
-        <v>3845122.762250493</v>
+        <v>3981945.820126454</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.8251693221294e-07</v>
+        <v>1.969452591828535e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.865625</v>
       </c>
       <c r="AH6" t="n">
-        <v>3478149.642484853</v>
+        <v>3601914.499749494</v>
       </c>
     </row>
     <row r="7">
@@ -16975,28 +16975,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2669.362535140787</v>
+        <v>2769.361545688198</v>
       </c>
       <c r="AB7" t="n">
-        <v>3652.339584543521</v>
+        <v>3789.162642419482</v>
       </c>
       <c r="AC7" t="n">
-        <v>3303.765420685351</v>
+        <v>3427.530277949993</v>
       </c>
       <c r="AD7" t="n">
-        <v>2669362.535140787</v>
+        <v>2769361.545688197</v>
       </c>
       <c r="AE7" t="n">
-        <v>3652339.584543521</v>
+        <v>3789162.642419482</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.961983532249723e-07</v>
+        <v>1.996876964059308e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>16.63333333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>3303765.420685351</v>
+        <v>3427530.277949993</v>
       </c>
     </row>
     <row r="8">
@@ -17081,28 +17081,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2668.81462845653</v>
+        <v>2768.81363900394</v>
       </c>
       <c r="AB8" t="n">
-        <v>3651.589914446184</v>
+        <v>3788.412972322144</v>
       </c>
       <c r="AC8" t="n">
-        <v>3303.087298049935</v>
+        <v>3426.852155314577</v>
       </c>
       <c r="AD8" t="n">
-        <v>2668814.62845653</v>
+        <v>2768813.63900394</v>
       </c>
       <c r="AE8" t="n">
-        <v>3651589.914446184</v>
+        <v>3788412.972322145</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.977892161333482e-07</v>
+        <v>2.000065844551258e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>16.60833333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>3303087.298049935</v>
+        <v>3426852.155314577</v>
       </c>
     </row>
   </sheetData>
@@ -17378,28 +17378,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4974.713275700961</v>
+        <v>5112.930831081155</v>
       </c>
       <c r="AB2" t="n">
-        <v>6806.622172674833</v>
+        <v>6995.737529674211</v>
       </c>
       <c r="AC2" t="n">
-        <v>6157.00770566871</v>
+        <v>6328.074158421131</v>
       </c>
       <c r="AD2" t="n">
-        <v>4974713.275700961</v>
+        <v>5112930.831081155</v>
       </c>
       <c r="AE2" t="n">
-        <v>6806622.172674833</v>
+        <v>6995737.529674212</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.195353114177657e-07</v>
+        <v>1.505312869725504e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.990625</v>
       </c>
       <c r="AH2" t="n">
-        <v>6157007.705668709</v>
+        <v>6328074.158421131</v>
       </c>
     </row>
     <row r="3">
@@ -17484,28 +17484,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3089.53038897591</v>
+        <v>3195.897538190059</v>
       </c>
       <c r="AB3" t="n">
-        <v>4227.231778658239</v>
+        <v>4372.768004800483</v>
       </c>
       <c r="AC3" t="n">
-        <v>3823.790710660001</v>
+        <v>3955.4371636406</v>
       </c>
       <c r="AD3" t="n">
-        <v>3089530.38897591</v>
+        <v>3195897.538190059</v>
       </c>
       <c r="AE3" t="n">
-        <v>4227231.778658239</v>
+        <v>4372768.004800484</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.240278434973425e-07</v>
+        <v>1.933124035372964e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.68125</v>
       </c>
       <c r="AH3" t="n">
-        <v>3823790.710660001</v>
+        <v>3955437.1636406</v>
       </c>
     </row>
     <row r="4">
@@ -17590,28 +17590,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2592.253490883222</v>
+        <v>2687.890139744479</v>
       </c>
       <c r="AB4" t="n">
-        <v>3546.83558837937</v>
+        <v>3677.68987054252</v>
       </c>
       <c r="AC4" t="n">
-        <v>3208.330577839322</v>
+        <v>3326.696310967956</v>
       </c>
       <c r="AD4" t="n">
-        <v>2592253.490883222</v>
+        <v>2687890.139744479</v>
       </c>
       <c r="AE4" t="n">
-        <v>3546835.58837937</v>
+        <v>3677689.87054252</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.954510860632241e-07</v>
+        <v>2.082545925481599e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.34166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>3208330.577839322</v>
+        <v>3326696.310967956</v>
       </c>
     </row>
     <row r="5">
@@ -17696,28 +17696,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2388.190789600132</v>
+        <v>2483.912689807409</v>
       </c>
       <c r="AB5" t="n">
-        <v>3267.627997872821</v>
+        <v>3398.598924688621</v>
       </c>
       <c r="AC5" t="n">
-        <v>2955.770167900414</v>
+        <v>3074.24141327976</v>
       </c>
       <c r="AD5" t="n">
-        <v>2388190.789600132</v>
+        <v>2483912.689807409</v>
       </c>
       <c r="AE5" t="n">
-        <v>3267627.997872821</v>
+        <v>3398598.924688621</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.021302654138114e-06</v>
+        <v>2.136629022597485e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.90208333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>2955770.167900414</v>
+        <v>3074241.41327976</v>
       </c>
     </row>
     <row r="6">
@@ -17802,28 +17802,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2400.64726405284</v>
+        <v>2496.369164260117</v>
       </c>
       <c r="AB6" t="n">
-        <v>3284.671495759885</v>
+        <v>3415.642422575685</v>
       </c>
       <c r="AC6" t="n">
-        <v>2971.187058269836</v>
+        <v>3089.658303649182</v>
       </c>
       <c r="AD6" t="n">
-        <v>2400647.26405284</v>
+        <v>2496369.164260117</v>
       </c>
       <c r="AE6" t="n">
-        <v>3284671.495759885</v>
+        <v>3415642.422575686</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.021634084498048e-06</v>
+        <v>2.137322395637433e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.89479166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>2971187.058269836</v>
+        <v>3089658.303649182</v>
       </c>
     </row>
   </sheetData>
@@ -32920,28 +32920,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3631.135495175315</v>
+        <v>3744.054732407149</v>
       </c>
       <c r="AB2" t="n">
-        <v>4968.279778891244</v>
+        <v>5122.780860917008</v>
       </c>
       <c r="AC2" t="n">
-        <v>4494.11412981814</v>
+        <v>4633.86984541899</v>
       </c>
       <c r="AD2" t="n">
-        <v>3631135.495175315</v>
+        <v>3744054.732407149</v>
       </c>
       <c r="AE2" t="n">
-        <v>4968279.778891244</v>
+        <v>5122780.860917008</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.216387021052312e-07</v>
+        <v>1.786124033309129e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.73125</v>
       </c>
       <c r="AH2" t="n">
-        <v>4494114.129818141</v>
+        <v>4633869.84541899</v>
       </c>
     </row>
     <row r="3">
@@ -33026,28 +33026,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2396.013783997288</v>
+        <v>2498.496954317084</v>
       </c>
       <c r="AB3" t="n">
-        <v>3278.331763933164</v>
+        <v>3418.5537588031</v>
       </c>
       <c r="AC3" t="n">
-        <v>2965.452381550788</v>
+        <v>3092.291786033138</v>
       </c>
       <c r="AD3" t="n">
-        <v>2396013.783997288</v>
+        <v>2498496.954317084</v>
       </c>
       <c r="AE3" t="n">
-        <v>3278331.763933164</v>
+        <v>3418553.7588031</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.001806087023361e-06</v>
+        <v>2.177781942553421e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.82291666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>2965452.381550788</v>
+        <v>3092291.786033138</v>
       </c>
     </row>
     <row r="4">
@@ -33132,28 +33132,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2201.741038415787</v>
+        <v>2293.958913041241</v>
       </c>
       <c r="AB4" t="n">
-        <v>3012.519222719896</v>
+        <v>3138.695787147947</v>
       </c>
       <c r="AC4" t="n">
-        <v>2725.00861620068</v>
+        <v>2839.143066409633</v>
       </c>
       <c r="AD4" t="n">
-        <v>2201741.038415787</v>
+        <v>2293958.913041241</v>
       </c>
       <c r="AE4" t="n">
-        <v>3012519.222719896</v>
+        <v>3138695.787147947</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.034891058754283e-06</v>
+        <v>2.249703899246236e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.25625</v>
       </c>
       <c r="AH4" t="n">
-        <v>2725008.61620068</v>
+        <v>2839143.066409633</v>
       </c>
     </row>
     <row r="5">
@@ -33238,28 +33238,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2219.98606763481</v>
+        <v>2312.203942260264</v>
       </c>
       <c r="AB5" t="n">
-        <v>3037.482876611246</v>
+        <v>3163.659441039297</v>
       </c>
       <c r="AC5" t="n">
-        <v>2747.589774001347</v>
+        <v>2861.7242242103</v>
       </c>
       <c r="AD5" t="n">
-        <v>2219986.06763481</v>
+        <v>2312203.942260264</v>
       </c>
       <c r="AE5" t="n">
-        <v>3037482.876611246</v>
+        <v>3163659.441039297</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.034891058754283e-06</v>
+        <v>2.249703899246236e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.25625</v>
       </c>
       <c r="AH5" t="n">
-        <v>2747589.774001346</v>
+        <v>2861724.2242103</v>
       </c>
     </row>
   </sheetData>
@@ -33535,28 +33535,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1850.524155735299</v>
+        <v>1945.562588291133</v>
       </c>
       <c r="AB2" t="n">
-        <v>2531.968789240969</v>
+        <v>2662.004565463593</v>
       </c>
       <c r="AC2" t="n">
-        <v>2290.321241636326</v>
+        <v>2407.94658588262</v>
       </c>
       <c r="AD2" t="n">
-        <v>1850524.155735299</v>
+        <v>1945562.588291133</v>
       </c>
       <c r="AE2" t="n">
-        <v>2531968.789240969</v>
+        <v>2662004.565463593</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.019310263264634e-06</v>
+        <v>2.424456945370727e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.80416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2290321.241636326</v>
+        <v>2407946.58588262</v>
       </c>
     </row>
     <row r="3">
@@ -33641,28 +33641,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1860.397317888778</v>
+        <v>1955.435750444612</v>
       </c>
       <c r="AB3" t="n">
-        <v>2545.477685272533</v>
+        <v>2675.513461495157</v>
       </c>
       <c r="AC3" t="n">
-        <v>2302.540867590491</v>
+        <v>2420.166211836786</v>
       </c>
       <c r="AD3" t="n">
-        <v>1860397.317888778</v>
+        <v>1955435.750444612</v>
       </c>
       <c r="AE3" t="n">
-        <v>2545477.685272533</v>
+        <v>2675513.461495157</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.023174074731882e-06</v>
+        <v>2.433647125127548e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.73333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>2302540.867590491</v>
+        <v>2420166.211836786</v>
       </c>
     </row>
   </sheetData>
@@ -33938,28 +33938,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>10687.25050134953</v>
+        <v>10871.53735082197</v>
       </c>
       <c r="AB2" t="n">
-        <v>14622.76762416341</v>
+        <v>14874.91702177362</v>
       </c>
       <c r="AC2" t="n">
-        <v>13227.19120529597</v>
+        <v>13455.27581829214</v>
       </c>
       <c r="AD2" t="n">
-        <v>10687250.50134953</v>
+        <v>10871537.35082197</v>
       </c>
       <c r="AE2" t="n">
-        <v>14622767.62416342</v>
+        <v>14874917.02177362</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.969992436632169e-07</v>
+        <v>9.644658951785504e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.246875</v>
       </c>
       <c r="AH2" t="n">
-        <v>13227191.20529597</v>
+        <v>13455275.81829214</v>
       </c>
     </row>
     <row r="3">
@@ -34044,28 +34044,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>5107.606874008208</v>
+        <v>5234.192101120305</v>
       </c>
       <c r="AB3" t="n">
-        <v>6988.453056730596</v>
+        <v>7161.652549011462</v>
       </c>
       <c r="AC3" t="n">
-        <v>6321.484905351433</v>
+        <v>6478.154481176018</v>
       </c>
       <c r="AD3" t="n">
-        <v>5107606.874008209</v>
+        <v>5234192.101120305</v>
       </c>
       <c r="AE3" t="n">
-        <v>6988453.056730596</v>
+        <v>7161652.549011461</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.551926587922813e-07</v>
+        <v>1.465510406667593e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.221875</v>
       </c>
       <c r="AH3" t="n">
-        <v>6321484.905351433</v>
+        <v>6478154.481176018</v>
       </c>
     </row>
     <row r="4">
@@ -34150,28 +34150,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>4138.296402905528</v>
+        <v>4253.443625062492</v>
       </c>
       <c r="AB4" t="n">
-        <v>5662.199707207906</v>
+        <v>5819.749216499992</v>
       </c>
       <c r="AC4" t="n">
-        <v>5121.807314098971</v>
+        <v>5264.320519346339</v>
       </c>
       <c r="AD4" t="n">
-        <v>4138296.402905528</v>
+        <v>4253443.625062492</v>
       </c>
       <c r="AE4" t="n">
-        <v>5662199.707207906</v>
+        <v>5819749.216499992</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.473606299855527e-07</v>
+        <v>1.644369561841572e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.915625</v>
       </c>
       <c r="AH4" t="n">
-        <v>5121807.314098971</v>
+        <v>5264320.519346339</v>
       </c>
     </row>
     <row r="5">
@@ -34256,28 +34256,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>3710.188383327677</v>
+        <v>3825.250264630069</v>
       </c>
       <c r="AB5" t="n">
-        <v>5076.443428028598</v>
+        <v>5233.876170198484</v>
       </c>
       <c r="AC5" t="n">
-        <v>4591.954792090457</v>
+        <v>4734.362374305884</v>
       </c>
       <c r="AD5" t="n">
-        <v>3710188.383327677</v>
+        <v>3825250.264630069</v>
       </c>
       <c r="AE5" t="n">
-        <v>5076443.428028597</v>
+        <v>5233876.170198484</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.953679872681915e-07</v>
+        <v>1.737531592583277e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.90104166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>4591954.792090457</v>
+        <v>4734362.374305884</v>
       </c>
     </row>
     <row r="6">
@@ -34362,28 +34362,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>3448.527125655859</v>
+        <v>3552.06584016565</v>
       </c>
       <c r="AB6" t="n">
-        <v>4718.42695160202</v>
+        <v>4860.093188600027</v>
       </c>
       <c r="AC6" t="n">
-        <v>4268.106905694764</v>
+        <v>4396.252715863488</v>
       </c>
       <c r="AD6" t="n">
-        <v>3448527.125655859</v>
+        <v>3552065.84016565</v>
       </c>
       <c r="AE6" t="n">
-        <v>4718426.95160202</v>
+        <v>4860093.188600027</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.25372585569841e-07</v>
+        <v>1.795757861796843e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.31979166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>4268106.905694764</v>
+        <v>4396252.715863489</v>
       </c>
     </row>
     <row r="7">
@@ -34468,28 +34468,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>3247.065596112259</v>
+        <v>3350.68956196807</v>
       </c>
       <c r="AB7" t="n">
-        <v>4442.778399025041</v>
+        <v>4584.561280675698</v>
       </c>
       <c r="AC7" t="n">
-        <v>4018.765864100568</v>
+        <v>4147.017186520005</v>
       </c>
       <c r="AD7" t="n">
-        <v>3247065.596112259</v>
+        <v>3350689.56196807</v>
       </c>
       <c r="AE7" t="n">
-        <v>4442778.399025041</v>
+        <v>4584561.280675698</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.455295208391542e-07</v>
+        <v>1.834873970858264e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>16.95208333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>4018765.864100568</v>
+        <v>4147017.186520005</v>
       </c>
     </row>
     <row r="8">
@@ -34574,28 +34574,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>3086.908306381549</v>
+        <v>3190.532272237359</v>
       </c>
       <c r="AB8" t="n">
-        <v>4223.644129574515</v>
+        <v>4365.427011225172</v>
       </c>
       <c r="AC8" t="n">
-        <v>3820.54546176953</v>
+        <v>3948.796784188968</v>
       </c>
       <c r="AD8" t="n">
-        <v>3086908.306381549</v>
+        <v>3190532.27223736</v>
       </c>
       <c r="AE8" t="n">
-        <v>4223644.129574515</v>
+        <v>4365427.011225172</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.601471456527782e-07</v>
+        <v>1.863240614834103e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>16.69375</v>
       </c>
       <c r="AH8" t="n">
-        <v>3820545.461769531</v>
+        <v>3948796.784188968</v>
       </c>
     </row>
     <row r="9">
@@ -34680,28 +34680,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2948.991961282247</v>
+        <v>3052.615927138058</v>
       </c>
       <c r="AB9" t="n">
-        <v>4034.940901769911</v>
+        <v>4176.723783420569</v>
       </c>
       <c r="AC9" t="n">
-        <v>3649.851805179963</v>
+        <v>3778.1031275994</v>
       </c>
       <c r="AD9" t="n">
-        <v>2948991.961282247</v>
+        <v>3052615.927138058</v>
       </c>
       <c r="AE9" t="n">
-        <v>4034940.901769911</v>
+        <v>4176723.783420569</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.71071896829276e-07</v>
+        <v>1.884440948752889e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>17</v>
+        <v>16.50520833333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>3649851.805179963</v>
+        <v>3778103.1275994</v>
       </c>
     </row>
     <row r="10">
@@ -34786,28 +34786,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2913.745309437069</v>
+        <v>3005.846108500278</v>
       </c>
       <c r="AB10" t="n">
-        <v>3986.714877742802</v>
+        <v>4112.731254221579</v>
       </c>
       <c r="AC10" t="n">
-        <v>3606.228405200352</v>
+        <v>3720.217955573085</v>
       </c>
       <c r="AD10" t="n">
-        <v>2913745.30943707</v>
+        <v>3005846.108500278</v>
       </c>
       <c r="AE10" t="n">
-        <v>3986714.877742802</v>
+        <v>4112731.254221579</v>
       </c>
       <c r="AF10" t="n">
-        <v>9.741492915268811e-07</v>
+        <v>1.890412873800434e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>17</v>
+        <v>16.453125</v>
       </c>
       <c r="AH10" t="n">
-        <v>3606228.405200351</v>
+        <v>3720217.955573084</v>
       </c>
     </row>
     <row r="11">
@@ -34892,28 +34892,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>2932.587156189198</v>
+        <v>3024.687955252406</v>
       </c>
       <c r="AB11" t="n">
-        <v>4012.495123712678</v>
+        <v>4138.511500191456</v>
       </c>
       <c r="AC11" t="n">
-        <v>3629.548220677665</v>
+        <v>3743.537771050398</v>
       </c>
       <c r="AD11" t="n">
-        <v>2932587.156189198</v>
+        <v>3024687.955252407</v>
       </c>
       <c r="AE11" t="n">
-        <v>4012495.123712678</v>
+        <v>4138511.500191455</v>
       </c>
       <c r="AF11" t="n">
-        <v>9.741492915268811e-07</v>
+        <v>1.890412873800434e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>17</v>
+        <v>16.453125</v>
       </c>
       <c r="AH11" t="n">
-        <v>3629548.220677665</v>
+        <v>3743537.771050398</v>
       </c>
     </row>
   </sheetData>
@@ -35189,28 +35189,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>17441.34778173385</v>
+        <v>17680.99914447031</v>
       </c>
       <c r="AB2" t="n">
-        <v>23864.02149292812</v>
+        <v>24191.92306009612</v>
       </c>
       <c r="AC2" t="n">
-        <v>21586.47277500668</v>
+        <v>21883.0798768169</v>
       </c>
       <c r="AD2" t="n">
-        <v>17441347.78173384</v>
+        <v>17680999.14447031</v>
       </c>
       <c r="AE2" t="n">
-        <v>23864021.49292812</v>
+        <v>24191923.06009612</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.840290718736035e-07</v>
+        <v>7.205891662675256e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>41</v>
+        <v>40.22395833333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>21586472.77500669</v>
+        <v>21883079.8768169</v>
       </c>
     </row>
     <row r="3">
@@ -35295,28 +35295,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>6632.59515129896</v>
+        <v>6776.266527547862</v>
       </c>
       <c r="AB3" t="n">
-        <v>9075.009295454493</v>
+        <v>9271.586810772034</v>
       </c>
       <c r="AC3" t="n">
-        <v>8208.903145151515</v>
+        <v>8386.719578305418</v>
       </c>
       <c r="AD3" t="n">
-        <v>6632595.15129896</v>
+        <v>6776266.527547862</v>
       </c>
       <c r="AE3" t="n">
-        <v>9075009.295454493</v>
+        <v>9271586.810772035</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.679733470233913e-07</v>
+        <v>1.25337999769699e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.125</v>
       </c>
       <c r="AH3" t="n">
-        <v>8208903.145151515</v>
+        <v>8386719.578305418</v>
       </c>
     </row>
     <row r="4">
@@ -35401,28 +35401,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>5184.950672164271</v>
+        <v>5304.733727859495</v>
       </c>
       <c r="AB4" t="n">
-        <v>7094.278253535283</v>
+        <v>7258.170714792957</v>
       </c>
       <c r="AC4" t="n">
-        <v>6417.210293899672</v>
+        <v>6565.461088679422</v>
       </c>
       <c r="AD4" t="n">
-        <v>5184950.672164271</v>
+        <v>5304733.727859495</v>
       </c>
       <c r="AE4" t="n">
-        <v>7094278.253535283</v>
+        <v>7258170.714792958</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.714684405244628e-07</v>
+        <v>1.447577386907311e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.01875</v>
       </c>
       <c r="AH4" t="n">
-        <v>6417210.293899672</v>
+        <v>6565461.088679422</v>
       </c>
     </row>
     <row r="5">
@@ -35507,28 +35507,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>4571.706294358878</v>
+        <v>4691.489260545551</v>
       </c>
       <c r="AB5" t="n">
-        <v>6255.210241389354</v>
+        <v>6419.10258017748</v>
       </c>
       <c r="AC5" t="n">
-        <v>5658.221755193631</v>
+        <v>5806.472439192155</v>
       </c>
       <c r="AD5" t="n">
-        <v>4571706.294358878</v>
+        <v>4691489.260545551</v>
       </c>
       <c r="AE5" t="n">
-        <v>6255210.241389354</v>
+        <v>6419102.58017748</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.27071105371027e-07</v>
+        <v>1.551909795150679e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.675</v>
       </c>
       <c r="AH5" t="n">
-        <v>5658221.755193631</v>
+        <v>5806472.439192154</v>
       </c>
     </row>
     <row r="6">
@@ -35613,28 +35613,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>4232.602156786867</v>
+        <v>4352.299782118969</v>
       </c>
       <c r="AB6" t="n">
-        <v>5791.233000144594</v>
+        <v>5955.008571810523</v>
       </c>
       <c r="AC6" t="n">
-        <v>5238.52585065714</v>
+        <v>5386.670911623723</v>
       </c>
       <c r="AD6" t="n">
-        <v>4232602.156786867</v>
+        <v>4352299.78211897</v>
       </c>
       <c r="AE6" t="n">
-        <v>5791233.000144594</v>
+        <v>5955008.571810523</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.608775255977381e-07</v>
+        <v>1.615343899362646e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.940625</v>
       </c>
       <c r="AH6" t="n">
-        <v>5238525.85065714</v>
+        <v>5386670.911623724</v>
       </c>
     </row>
     <row r="7">
@@ -35719,28 +35719,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>4008.197449512308</v>
+        <v>4115.908333648837</v>
       </c>
       <c r="AB7" t="n">
-        <v>5484.192579614548</v>
+        <v>5631.567363158993</v>
       </c>
       <c r="AC7" t="n">
-        <v>4960.788936928557</v>
+        <v>5094.098477973322</v>
       </c>
       <c r="AD7" t="n">
-        <v>4008197.449512308</v>
+        <v>4115908.333648837</v>
       </c>
       <c r="AE7" t="n">
-        <v>5484192.579614548</v>
+        <v>5631567.363158993</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.843047817197572e-07</v>
+        <v>1.659302620702519e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>17.46770833333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>4960788.936928556</v>
+        <v>5094098.477973321</v>
       </c>
     </row>
     <row r="8">
@@ -35825,28 +35825,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>3838.629551967795</v>
+        <v>3934.524287109342</v>
       </c>
       <c r="AB8" t="n">
-        <v>5252.18230138646</v>
+        <v>5383.389708584267</v>
       </c>
       <c r="AC8" t="n">
-        <v>4750.921394026096</v>
+        <v>4869.606550431693</v>
       </c>
       <c r="AD8" t="n">
-        <v>3838629.551967795</v>
+        <v>3934524.287109342</v>
       </c>
       <c r="AE8" t="n">
-        <v>5252182.301386461</v>
+        <v>5383389.708584268</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.007631705143401e-07</v>
+        <v>1.690185013542555e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>17.14583333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>4750921.394026096</v>
+        <v>4869606.550431693</v>
       </c>
     </row>
     <row r="9">
@@ -35931,28 +35931,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>3693.427743612895</v>
+        <v>3801.223879095443</v>
       </c>
       <c r="AB9" t="n">
-        <v>5053.510781343593</v>
+        <v>5201.002209540686</v>
       </c>
       <c r="AC9" t="n">
-        <v>4571.210805018897</v>
+        <v>4704.625858314374</v>
       </c>
       <c r="AD9" t="n">
-        <v>3693427.743612895</v>
+        <v>3801223.879095444</v>
       </c>
       <c r="AE9" t="n">
-        <v>5053510.781343593</v>
+        <v>5201002.209540686</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.133664412128947e-07</v>
+        <v>1.713833692744385e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>17</v>
+        <v>16.91041666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>4571210.805018897</v>
+        <v>4704625.858314374</v>
       </c>
     </row>
     <row r="10">
@@ -36037,28 +36037,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>3572.521326510809</v>
+        <v>3680.317461993357</v>
       </c>
       <c r="AB10" t="n">
-        <v>4888.081287449842</v>
+        <v>5035.572715646936</v>
       </c>
       <c r="AC10" t="n">
-        <v>4421.56966984062</v>
+        <v>4554.984723136096</v>
       </c>
       <c r="AD10" t="n">
-        <v>3572521.326510808</v>
+        <v>3680317.461993357</v>
       </c>
       <c r="AE10" t="n">
-        <v>4888081.287449842</v>
+        <v>5035572.715646936</v>
       </c>
       <c r="AF10" t="n">
-        <v>9.235973315446625e-07</v>
+        <v>1.733030855861165e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>17</v>
+        <v>16.72291666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>4421569.66984062</v>
+        <v>4554984.723136096</v>
       </c>
     </row>
     <row r="11">
@@ -36143,28 +36143,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>3457.921448146939</v>
+        <v>3565.717583629488</v>
       </c>
       <c r="AB11" t="n">
-        <v>4731.280678082574</v>
+        <v>4878.772106279668</v>
       </c>
       <c r="AC11" t="n">
-        <v>4279.733890560332</v>
+        <v>4413.148943855809</v>
       </c>
       <c r="AD11" t="n">
-        <v>3457921.448146939</v>
+        <v>3565717.583629488</v>
       </c>
       <c r="AE11" t="n">
-        <v>4731280.678082574</v>
+        <v>4878772.106279668</v>
       </c>
       <c r="AF11" t="n">
-        <v>9.323454841471887e-07</v>
+        <v>1.749445821424788e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>17</v>
+        <v>16.565625</v>
       </c>
       <c r="AH11" t="n">
-        <v>4279733.890560332</v>
+        <v>4413148.943855809</v>
       </c>
     </row>
     <row r="12">
@@ -36249,28 +36249,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>3355.637979351857</v>
+        <v>3451.447373638832</v>
       </c>
       <c r="AB12" t="n">
-        <v>4591.331923648962</v>
+        <v>4722.422563724572</v>
       </c>
       <c r="AC12" t="n">
-        <v>4153.141648830559</v>
+        <v>4271.721182204215</v>
       </c>
       <c r="AD12" t="n">
-        <v>3355637.979351857</v>
+        <v>3451447.373638832</v>
       </c>
       <c r="AE12" t="n">
-        <v>4591331.923648963</v>
+        <v>4722422.563724572</v>
       </c>
       <c r="AF12" t="n">
-        <v>9.390178039287763e-07</v>
+        <v>1.761965710413992e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>17</v>
+        <v>16.446875</v>
       </c>
       <c r="AH12" t="n">
-        <v>4153141.648830558</v>
+        <v>4271721.182204216</v>
       </c>
     </row>
     <row r="13">
@@ -36355,28 +36355,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>3271.762295918359</v>
+        <v>3367.571690205334</v>
       </c>
       <c r="AB13" t="n">
-        <v>4476.569513241247</v>
+        <v>4607.660153316857</v>
       </c>
       <c r="AC13" t="n">
-        <v>4049.332001802105</v>
+        <v>4167.911535175763</v>
       </c>
       <c r="AD13" t="n">
-        <v>3271762.295918359</v>
+        <v>3367571.690205334</v>
       </c>
       <c r="AE13" t="n">
-        <v>4476569.513241247</v>
+        <v>4607660.153316857</v>
       </c>
       <c r="AF13" t="n">
-        <v>9.440591122081982e-07</v>
+        <v>1.771425182094724e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>17</v>
+        <v>16.359375</v>
       </c>
       <c r="AH13" t="n">
-        <v>4049332.001802105</v>
+        <v>4167911.535175763</v>
       </c>
     </row>
     <row r="14">
@@ -36461,28 +36461,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>3256.827572920272</v>
+        <v>3352.636967207247</v>
       </c>
       <c r="AB14" t="n">
-        <v>4456.135166361786</v>
+        <v>4587.225806437395</v>
       </c>
       <c r="AC14" t="n">
-        <v>4030.847880309035</v>
+        <v>4149.427413682693</v>
       </c>
       <c r="AD14" t="n">
-        <v>3256827.572920272</v>
+        <v>3352636.967207247</v>
       </c>
       <c r="AE14" t="n">
-        <v>4456135.166361786</v>
+        <v>4587225.806437396</v>
       </c>
       <c r="AF14" t="n">
-        <v>9.452453023915915e-07</v>
+        <v>1.773650940137249e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>17</v>
+        <v>16.340625</v>
       </c>
       <c r="AH14" t="n">
-        <v>4030847.880309035</v>
+        <v>4149427.413682692</v>
       </c>
     </row>
     <row r="15">
@@ -36567,28 +36567,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>3264.731225789186</v>
+        <v>3360.540620076161</v>
       </c>
       <c r="AB15" t="n">
-        <v>4466.949292901589</v>
+        <v>4598.0399329772</v>
       </c>
       <c r="AC15" t="n">
-        <v>4040.6299217896</v>
+        <v>4159.209455163258</v>
       </c>
       <c r="AD15" t="n">
-        <v>3264731.225789186</v>
+        <v>3360540.620076161</v>
       </c>
       <c r="AE15" t="n">
-        <v>4466949.292901589</v>
+        <v>4598039.9329772</v>
       </c>
       <c r="AF15" t="n">
-        <v>9.458383974832882e-07</v>
+        <v>1.774763819158512e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>17</v>
+        <v>16.33020833333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>4040629.921789601</v>
+        <v>4159209.455163258</v>
       </c>
     </row>
   </sheetData>
@@ -36864,28 +36864,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1695.457995093709</v>
+        <v>1786.974673380023</v>
       </c>
       <c r="AB2" t="n">
-        <v>2319.800427214956</v>
+        <v>2445.017583877187</v>
       </c>
       <c r="AC2" t="n">
-        <v>2098.401930301908</v>
+        <v>2211.66853727568</v>
       </c>
       <c r="AD2" t="n">
-        <v>1695457.995093709</v>
+        <v>1786974.673380023</v>
       </c>
       <c r="AE2" t="n">
-        <v>2319800.427214955</v>
+        <v>2445017.583877187</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.752878107186671e-07</v>
+        <v>2.439120800472191e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.35</v>
       </c>
       <c r="AH2" t="n">
-        <v>2098401.930301908</v>
+        <v>2211668.53727568</v>
       </c>
     </row>
   </sheetData>
@@ -37161,28 +37161,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>5723.133622749889</v>
+        <v>5863.544341215755</v>
       </c>
       <c r="AB2" t="n">
-        <v>7830.643909482655</v>
+        <v>8022.760048971377</v>
       </c>
       <c r="AC2" t="n">
-        <v>7083.298245139086</v>
+        <v>7257.079089911694</v>
       </c>
       <c r="AD2" t="n">
-        <v>5723133.622749888</v>
+        <v>5863544.341215755</v>
       </c>
       <c r="AE2" t="n">
-        <v>7830643.909482654</v>
+        <v>8022760.048971376</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.758976431508589e-07</v>
+        <v>1.391864835922295e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.16875</v>
       </c>
       <c r="AH2" t="n">
-        <v>7083298.245139087</v>
+        <v>7257079.089911694</v>
       </c>
     </row>
     <row r="3">
@@ -37267,28 +37267,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3425.431228893213</v>
+        <v>3522.75684117085</v>
       </c>
       <c r="AB3" t="n">
-        <v>4686.826126732313</v>
+        <v>4819.991323153563</v>
       </c>
       <c r="AC3" t="n">
-        <v>4239.522019198586</v>
+        <v>4359.978116171914</v>
       </c>
       <c r="AD3" t="n">
-        <v>3425431.228893213</v>
+        <v>3522756.84117085</v>
       </c>
       <c r="AE3" t="n">
-        <v>4686826.126732313</v>
+        <v>4819991.323153563</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.909634068690712e-07</v>
+        <v>1.834746205554975e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.090625</v>
       </c>
       <c r="AH3" t="n">
-        <v>4239522.019198586</v>
+        <v>4359978.116171914</v>
       </c>
     </row>
     <row r="4">
@@ -37373,28 +37373,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2868.741730687729</v>
+        <v>2966.067253456815</v>
       </c>
       <c r="AB4" t="n">
-        <v>3925.13899588018</v>
+        <v>4058.304069831881</v>
       </c>
       <c r="AC4" t="n">
-        <v>3550.529239080407</v>
+        <v>3670.985225272509</v>
       </c>
       <c r="AD4" t="n">
-        <v>2868741.730687729</v>
+        <v>2966067.253456815</v>
       </c>
       <c r="AE4" t="n">
-        <v>3925138.99588018</v>
+        <v>4058304.069831881</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.659179896683571e-07</v>
+        <v>1.989098938023768e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.61145833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>3550529.239080407</v>
+        <v>3670985.225272509</v>
       </c>
     </row>
     <row r="5">
@@ -37479,28 +37479,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2558.806655678718</v>
+        <v>2656.046837593233</v>
       </c>
       <c r="AB5" t="n">
-        <v>3501.072152882335</v>
+        <v>3634.120459711839</v>
       </c>
       <c r="AC5" t="n">
-        <v>3166.934740396741</v>
+        <v>3287.285103556905</v>
       </c>
       <c r="AD5" t="n">
-        <v>2558806.655678718</v>
+        <v>2656046.837593233</v>
       </c>
       <c r="AE5" t="n">
-        <v>3501072.152882335</v>
+        <v>3634120.459711839</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.004293429663634e-06</v>
+        <v>2.068124846804086e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.93645833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>3166934.740396741</v>
+        <v>3287285.103556904</v>
       </c>
     </row>
     <row r="6">
@@ -37585,28 +37585,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2481.781917535651</v>
+        <v>2579.022099450166</v>
       </c>
       <c r="AB6" t="n">
-        <v>3395.683508063363</v>
+        <v>3528.731814892868</v>
       </c>
       <c r="AC6" t="n">
-        <v>3071.604239925404</v>
+        <v>3191.954603085567</v>
       </c>
       <c r="AD6" t="n">
-        <v>2481781.917535651</v>
+        <v>2579022.099450165</v>
       </c>
       <c r="AE6" t="n">
-        <v>3395683.508063363</v>
+        <v>3528731.814892868</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.013928114598619e-06</v>
+        <v>2.08796539411489e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.77604166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>3071604.239925404</v>
+        <v>3191954.603085567</v>
       </c>
     </row>
     <row r="7">
@@ -37691,28 +37691,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2499.563573425281</v>
+        <v>2596.803755339795</v>
       </c>
       <c r="AB7" t="n">
-        <v>3420.013154122848</v>
+        <v>3553.061460952352</v>
       </c>
       <c r="AC7" t="n">
-        <v>3093.611898711843</v>
+        <v>3213.962261872006</v>
       </c>
       <c r="AD7" t="n">
-        <v>2499563.57342528</v>
+        <v>2596803.755339795</v>
       </c>
       <c r="AE7" t="n">
-        <v>3420013.154122848</v>
+        <v>3553061.460952352</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.01409141434328e-06</v>
+        <v>2.088301674577785e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>16.775</v>
       </c>
       <c r="AH7" t="n">
-        <v>3093611.898711843</v>
+        <v>3213962.261872006</v>
       </c>
     </row>
   </sheetData>
@@ -37988,28 +37988,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>8395.966298114266</v>
+        <v>8564.715315845277</v>
       </c>
       <c r="AB2" t="n">
-        <v>11487.73149297187</v>
+        <v>11718.6213437127</v>
       </c>
       <c r="AC2" t="n">
-        <v>10391.35852241462</v>
+        <v>10600.21256985667</v>
       </c>
       <c r="AD2" t="n">
-        <v>8395966.298114266</v>
+        <v>8564715.315845277</v>
       </c>
       <c r="AE2" t="n">
-        <v>11487731.49297187</v>
+        <v>11718621.3437127</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.619137572717544e-07</v>
+        <v>1.113254608098992e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.146875</v>
       </c>
       <c r="AH2" t="n">
-        <v>10391358.52241462</v>
+        <v>10600212.56985667</v>
       </c>
     </row>
     <row r="3">
@@ -38094,28 +38094,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>4412.980922547771</v>
+        <v>4525.508744489485</v>
       </c>
       <c r="AB3" t="n">
-        <v>6038.035185208191</v>
+        <v>6192.00071556599</v>
       </c>
       <c r="AC3" t="n">
-        <v>5461.7735815673</v>
+        <v>5601.044857799724</v>
       </c>
       <c r="AD3" t="n">
-        <v>4412980.922547771</v>
+        <v>4525508.744489485</v>
       </c>
       <c r="AE3" t="n">
-        <v>6038035.185208191</v>
+        <v>6192000.71556599</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.049799768414613e-07</v>
+        <v>1.594813540421611e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.34375</v>
       </c>
       <c r="AH3" t="n">
-        <v>5461773.5815673</v>
+        <v>5601044.857799724</v>
       </c>
     </row>
     <row r="4">
@@ -38200,28 +38200,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>3640.206329337131</v>
+        <v>3741.472843950072</v>
       </c>
       <c r="AB4" t="n">
-        <v>4980.690894368403</v>
+        <v>5119.248207225157</v>
       </c>
       <c r="AC4" t="n">
-        <v>4505.340745853267</v>
+        <v>4630.674343237378</v>
       </c>
       <c r="AD4" t="n">
-        <v>3640206.329337131</v>
+        <v>3741472.843950072</v>
       </c>
       <c r="AE4" t="n">
-        <v>4980690.894368403</v>
+        <v>5119248.207225157</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.908235446843202e-07</v>
+        <v>1.764885453130635e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.384375</v>
       </c>
       <c r="AH4" t="n">
-        <v>4505340.745853268</v>
+        <v>4630674.343237378</v>
       </c>
     </row>
     <row r="5">
@@ -38306,28 +38306,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>3272.163647680542</v>
+        <v>3373.515413639504</v>
       </c>
       <c r="AB5" t="n">
-        <v>4477.118660428655</v>
+        <v>4615.792617938059</v>
       </c>
       <c r="AC5" t="n">
-        <v>4049.828739152681</v>
+        <v>4175.267848787504</v>
       </c>
       <c r="AD5" t="n">
-        <v>3272163.647680542</v>
+        <v>3373515.413639504</v>
       </c>
       <c r="AE5" t="n">
-        <v>4477118.660428655</v>
+        <v>4615792.617938059</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.350031098195645e-07</v>
+        <v>1.852413305642055e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.51458333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>4049828.739152681</v>
+        <v>4175267.848787503</v>
       </c>
     </row>
     <row r="6">
@@ -38412,28 +38412,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>3032.428933391156</v>
+        <v>3122.519481529896</v>
       </c>
       <c r="AB6" t="n">
-        <v>4149.103047988746</v>
+        <v>4272.368910466654</v>
       </c>
       <c r="AC6" t="n">
-        <v>3753.118476391245</v>
+        <v>3864.62001795898</v>
       </c>
       <c r="AD6" t="n">
-        <v>3032428.933391156</v>
+        <v>3122519.481529896</v>
       </c>
       <c r="AE6" t="n">
-        <v>4149103.047988746</v>
+        <v>4272368.910466653</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.628315191752166e-07</v>
+        <v>1.907546508113662e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.00833333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>3753118.476391245</v>
+        <v>3864620.017958981</v>
       </c>
     </row>
     <row r="7">
@@ -38518,28 +38518,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2836.680442510709</v>
+        <v>2937.946867615099</v>
       </c>
       <c r="AB7" t="n">
-        <v>3881.27132695217</v>
+        <v>4019.828517339377</v>
       </c>
       <c r="AC7" t="n">
-        <v>3510.848238906229</v>
+        <v>3636.181725509113</v>
       </c>
       <c r="AD7" t="n">
-        <v>2836680.442510709</v>
+        <v>2937946.867615099</v>
       </c>
       <c r="AE7" t="n">
-        <v>3881271.32695217</v>
+        <v>4019828.517339377</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.810693467755309e-07</v>
+        <v>1.943679002388839e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>16.69166666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>3510848.238906229</v>
+        <v>3636181.725509113</v>
       </c>
     </row>
     <row r="8">
@@ -38624,28 +38624,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2746.637607013921</v>
+        <v>2847.904032118312</v>
       </c>
       <c r="AB8" t="n">
-        <v>3758.070747015915</v>
+        <v>3896.627937403121</v>
       </c>
       <c r="AC8" t="n">
-        <v>3399.405749405994</v>
+        <v>3524.739236008879</v>
       </c>
       <c r="AD8" t="n">
-        <v>2746637.607013921</v>
+        <v>2847904.032118312</v>
       </c>
       <c r="AE8" t="n">
-        <v>3758070.747015915</v>
+        <v>3896627.937403121</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.890877020136002e-07</v>
+        <v>1.959564840389132e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>16.55833333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>3399405.749405995</v>
+        <v>3524739.236008879</v>
       </c>
     </row>
     <row r="9">
@@ -38730,28 +38730,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2754.638543262591</v>
+        <v>2855.904968366981</v>
       </c>
       <c r="AB9" t="n">
-        <v>3769.017980967742</v>
+        <v>3907.575171354948</v>
       </c>
       <c r="AC9" t="n">
-        <v>3409.308194713998</v>
+        <v>3534.641681316882</v>
       </c>
       <c r="AD9" t="n">
-        <v>2754638.543262591</v>
+        <v>2855904.968366981</v>
       </c>
       <c r="AE9" t="n">
-        <v>3769017.980967741</v>
+        <v>3907575.171354948</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.898738152722345e-07</v>
+        <v>1.9611222754872e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>17</v>
+        <v>16.54375</v>
       </c>
       <c r="AH9" t="n">
-        <v>3409308.194713998</v>
+        <v>3534641.681316882</v>
       </c>
     </row>
   </sheetData>
